--- a/sa/output01.xlsx
+++ b/sa/output01.xlsx
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['未能用周禮하니', '將無以固其國焉이라']</t>
+          <t>['未能用周禮하니 將無以固其國焉이라']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['&lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니', '장차 나라를 견고하게 할 수 없었다.']</t>
+          <t>['&lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니 장차 나라를 견고하게 할 수 없었다.']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未能用周禮하니', 'tgt': '&lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니', 'score': 0.6247498989105225}, {'src_idx': 1, 'tgt_idx': 1, 'src': '將無以固其國焉이라', 'tgt': '장차 나라를 견고하게 할 수 없었다.', 'score': 0.7302612066268921}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '未能用周禮하니 將無以固其國焉이라', 'tgt': '&lt;양공이&gt; 周나라의 禮를 잘 따르지 못하니 장차 나라를 견고하게 할 수 없었다.', 'score': 0.7185958623886108}]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -589,27 +589,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['秦處周之舊土하니', '其人被周之德敎日久矣라']</t>
+          <t>['秦處周之舊土하니 其人被周之德敎日久矣라']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['秦이 周의 옛 땅에 자리 잡았는데 그곳의', '백성들은 周의 德敎에 젖어든 날이 오래 되었다.']</t>
+          <t>['秦이 周의 옛 땅에 자리 잡았는데 그곳의 백성들은 周의 德敎에 젖어든 날이 오래 되었다.']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '秦處周之舊土하니', 'tgt': '秦이 周의 옛 땅에 자리 잡았는데 그곳의', 'score': 0.6705977320671082}, {'src_idx': 1, 'tgt_idx': 1, 'src': '其人被周之德敎日久矣라', 'tgt': '백성들은 周의 德敎에 젖어든 날이 오래 되었다.', 'score': 0.8159584999084473}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '秦處周之舊土하니 其人被周之德敎日久矣라', 'tgt': '秦이 周의 옛 땅에 자리 잡았는데 그곳의 백성들은 周의 德敎에 젖어든 날이 오래 되었다.', 'score': 0.8371443152427673}]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -633,27 +633,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['今襄公新爲諸侯하여', '未習周之禮法이라']</t>
+          <t>['今襄公新爲諸侯하여 未習周之禮法이라']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['그런데 이제 襄公이 새로 諸侯가 되어', '周나라의 禮法에 익숙하지 않았다.']</t>
+          <t>['그런데 이제 襄公이 새로 諸侯가 되어 周나라의 禮法에 익숙하지 않았다.']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今襄公新爲諸侯하여', 'tgt': '그런데 이제 襄公이 새로 諸侯가 되어', 'score': 0.8857778310775757}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未習周之禮法이라', 'tgt': '周나라의 禮法에 익숙하지 않았다.', 'score': 0.7101464867591858}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今襄公新爲諸侯하여 未習周之禮法이라', 'tgt': '그런데 이제 襄公이 새로 諸侯가 되어 周나라의 禮法에 익숙하지 않았다.', 'score': 0.8136422038078308}]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -765,27 +765,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['正義曰：', '作蒹葭詩者,', '刺襄公也.']</t>
+          <t>['正義曰：作蒹葭詩者, 刺襄公也.']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['正義曰：&lt;蒹葭&gt;', '詩를 지은', '것은 襄公을 풍자한 것이다.']</t>
+          <t>['正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：&lt;蒹葭&gt;', 'score': 0.9356595277786255}, {'src_idx': 1, 'tgt_idx': 1, 'src': '作蒹葭詩者,', 'tgt': '詩를 지은', 'score': 0.8518326282501221}, {'src_idx': 2, 'tgt_idx': 2, 'src': '刺襄公也.', 'tgt': '것은 襄公을 풍자한 것이다.', 'score': 0.7810762524604797}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：作蒹葭詩者, 刺襄公也.', 'tgt': '正義曰：&lt;蒹葭&gt; 詩를 지은 것은 襄公을 풍자한 것이다.', 'score': 0.8611261248588562}]</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -809,27 +809,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['襄公新得周地,', '其民被周之德敎日久.']</t>
+          <t>['襄公新得周地, 其民被周之德敎日久.']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['襄公이 새로 周 땅을 얻었는데,', '그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.']</t>
+          <t>['襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '襄公新得周地,', 'tgt': '襄公이 새로 周 땅을 얻었는데,', 'score': 0.910190224647522}, {'src_idx': 1, 'tgt_idx': 1, 'src': '其民被周之德敎日久.', 'tgt': '그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.', 'score': 0.8199056386947632}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '襄公新得周地, 其民被周之德敎日久.', 'tgt': '襄公이 새로 周 땅을 얻었는데, 그곳의 백성들이 周나라의 德敎에 젖어든 지가 오래 되었다.', 'score': 0.8955406546592712}]</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -897,27 +897,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['禮者,', '爲國之本,', '未能用周禮,', '將無以固其國焉,']</t>
+          <t>['禮者, 爲國之本, 未能用周禮, 將無以固其國焉,']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['禮란', '나라를 다스리는 근본인데', '周禮를 아직 잘 따르지 못하니', '그 나라를 견고하게 할 수가 없었다.']</t>
+          <t>['禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다.']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '禮者,', 'tgt': '禮란', 'score': 0.6363643407821655}, {'src_idx': 1, 'tgt_idx': 1, 'src': '爲國之本,', 'tgt': '나라를 다스리는 근본인데', 'score': 0.7229543328285217}, {'src_idx': 2, 'tgt_idx': 2, 'src': '未能用周禮,', 'tgt': '周禮를 아직 잘 따르지 못하니', 'score': 0.7524573802947998}, {'src_idx': 3, 'tgt_idx': 3, 'src': '將無以固其國焉,', 'tgt': '그 나라를 견고하게 할 수가 없었다.', 'score': 0.7397363781929016}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '禮者, 爲國之本, 未能用周禮, 將無以固其國焉,', 'tgt': '禮란 나라를 다스리는 근본인데 周禮를 아직 잘 따르지 못하니 그 나라를 견고하게 할 수가 없었다.', 'score': 0.7630310654640198}]</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -985,27 +985,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['經三章,', '皆言治國須禮之事.']</t>
+          <t>['經三章, 皆言治國須禮之事.']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['經文 세 章은', '모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.']</t>
+          <t>['經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '經三章,', 'tgt': '經文 세 章은', 'score': 0.8453590273857117}, {'src_idx': 1, 'tgt_idx': 1, 'src': '皆言治國須禮之事.', 'tgt': '모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.', 'score': 0.8486136794090271}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '經三章, 皆言治國須禮之事.', 'tgt': '經文 세 章은 모두 나라를 다스림에 禮를 필요로 한다는 일을 말한 것이다.', 'score': 0.8928599953651428}]</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1029,24 +1029,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['蒹葭蒼蒼이러니', '白露爲霜이로다']</t>
+          <t>['蒹葭蒼蒼이러니 白露爲霜이로다']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['갈대 무성하더니', '白露 서리가 되었네']</t>
+          <t>['갈대 무성하더니 白露 서리가 되었네']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '白露爲霜이로다', 'tgt': '白露 서리가 되었네', 'score': 0.7433139085769653}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹葭蒼蒼이러니 白露爲霜이로다', 'tgt': '갈대 무성하더니 白露 서리가 되었네', 'score': 0.6354356408119202}]</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1117,27 +1117,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['蒹은', '薕(렴)이요', '葭는', '蘆也라']</t>
+          <t>['蒹은', '薕(렴)이요 葭는', '蘆也라']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['蒹은', '물억새이고', '葭는', '갈대이다.']</t>
+          <t>['蒹은', '물억새이고 葭는', '갈대이다.']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹은', 'tgt': '蒹은', 'score': 1.0000001192092896}, {'src_idx': 1, 'tgt_idx': 2, 'src': '薕(렴)이요', 'tgt': '葭는', 'score': 0.6819658875465393}, {'src_idx': 2, 'tgt_idx': 2, 'src': '葭는', 'tgt': '葭는', 'score': 1.0000001192092896}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹은', 'tgt': '蒹은', 'score': 1.0000001192092896}, {'src_idx': 1, 'tgt_idx': 0, 'src': '薕(렴)이요 葭는', 'tgt': '蒹은', 'score': 0.6192870140075684}]</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1205,27 +1205,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['白露凝戾爲霜然後에', '歲事成이요', '國家待禮然後興이라']</t>
+          <t>['白露凝戾爲霜然後에', '歲事成이요 國家待禮然後興이라']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['白露가 얼어 서리가 된 뒤에야', '歲事가 이루어지고', '國家는 禮가 행해진 뒤에야 흥성한다.']</t>
+          <t>['白露가 얼어 서리가 된 뒤에야', '歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '白露凝戾爲霜然後에', 'tgt': '白露가 얼어 서리가 된 뒤에야', 'score': 0.7180862426757812}, {'src_idx': 1, 'tgt_idx': 1, 'src': '歲事成이요', 'tgt': '歲事가 이루어지고', 'score': 0.8635861873626709}, {'src_idx': 2, 'tgt_idx': 2, 'src': '國家待禮然後興이라', 'tgt': '國家는 禮가 행해진 뒤에야 흥성한다.', 'score': 0.8283872604370117}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '白露凝戾爲霜然後에', 'tgt': '白露가 얼어 서리가 된 뒤에야', 'score': 0.718086302280426}, {'src_idx': 1, 'tgt_idx': 1, 'src': '歲事成이요 國家待禮然後興이라', 'tgt': '歲事가 이루어지고 國家는 禮가 행해진 뒤에야 흥성한다.', 'score': 0.8620294332504272}]</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1249,27 +1249,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['箋云', '蒹葭在衆草之中에', '蒼蒼然彊盛이라가', '至白露凝戾爲霜이면', '則成而黃이라']</t>
+          <t>['箋云 蒹葭在衆草之中에', '蒼蒼然彊盛이라가', '至白露凝戾爲霜이면 則成而黃이라']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['箋云：', '갈대는 여러 풀 가운데에', '푸르게 무성했다가', '白露가 얼어 서리가 되면 다', '자라 누래진다.']</t>
+          <t>['箋云： 갈대는 여러 풀 가운데에', '푸르게 무성했다가', '白露가 얼어 서리가 되면 다 자라 누래진다.']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '箋云：', 'score': 0.8240688443183899}, {'src_idx': 1, 'tgt_idx': 1, 'src': '蒹葭在衆草之中에', 'tgt': '갈대는 여러 풀 가운데에', 'score': 0.6382174491882324}, {'src_idx': 3, 'tgt_idx': 3, 'src': '至白露凝戾爲霜이면', 'tgt': '白露가 얼어 서리가 되면 다', 'score': 0.6568173170089722}, {'src_idx': 4, 'tgt_idx': 4, 'src': '則成而黃이라', 'tgt': '자라 누래진다.', 'score': 0.5864585638046265}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云 蒹葭在衆草之中에', 'tgt': '箋云： 갈대는 여러 풀 가운데에', 'score': 0.7257389426231384}, {'src_idx': 2, 'tgt_idx': 2, 'src': '至白露凝戾爲霜이면 則成而黃이라', 'tgt': '白露가 얼어 서리가 되면 다 자라 누래진다.', 'score': 0.6733430027961731}]</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1293,27 +1293,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['興者는', '喩衆民之不從襄公政令者는', '得周禮以敎之면', '則服이라']</t>
+          <t>['興者는', '喩衆民之不從襄公政令者는', '得周禮以敎之면 則服이라']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['興한 것은', '襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt;', '周禮를 따라 교화시키면', '복종한다는 것을 비유한 것이다.']</t>
+          <t>['興한 것은', '襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt;', '周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '興者는', 'tgt': '興한 것은', 'score': 0.7568526864051819}, {'src_idx': 1, 'tgt_idx': 1, 'src': '喩衆民之不從襄公政令者는', 'tgt': '襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt;', 'score': 0.8479205965995789}, {'src_idx': 2, 'tgt_idx': 2, 'src': '得周禮以敎之면', 'tgt': '周禮를 따라 교화시키면', 'score': 0.7538692355155945}, {'src_idx': 3, 'tgt_idx': 3, 'src': '則服이라', 'tgt': '복종한다는 것을 비유한 것이다.', 'score': 0.5913213491439819}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '興者는', 'tgt': '興한 것은', 'score': 0.7568526864051819}, {'src_idx': 1, 'tgt_idx': 1, 'src': '喩衆民之不從襄公政令者는', 'tgt': '襄公의 政令을 따르지 않는 백성들은 &lt;군주가&gt;', 'score': 0.8479205965995789}, {'src_idx': 2, 'tgt_idx': 2, 'src': '得周禮以敎之면 則服이라', 'tgt': '周禮를 따라 교화시키면 복종한다는 것을 비유한 것이다.', 'score': 0.7861113548278809}]</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['箋云', '伊當作繄(예)니', '繄는', '猶是也라']</t>
+          <t>['箋云 伊當作繄(예)니 繄는', '猶是也라']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['箋云：', '伊는 繄가 되어야 하니', '繄는', '‘이(是)’와 같다.']</t>
+          <t>['箋云： 伊는 繄가', '되어야 하니 繄는 ‘이(是)’와 같다.']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '箋云：', 'score': 0.8240688443183899}, {'src_idx': 1, 'tgt_idx': 3, 'src': '伊當作繄(예)니', 'tgt': '‘이(是)’와 같다.', 'score': 0.6889575123786926}, {'src_idx': 2, 'tgt_idx': 2, 'src': '繄는', 'tgt': '繄는', 'score': 1.0000001192092896}, {'src_idx': 3, 'tgt_idx': 3, 'src': '猶是也라', 'tgt': '‘이(是)’와 같다.', 'score': 0.5252942442893982}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云 伊當作繄(예)니 繄는', 'tgt': '箋云： 伊는 繄가', 'score': 0.8028860092163086}, {'src_idx': 1, 'tgt_idx': 1, 'src': '猶是也라', 'tgt': '되어야 하니 繄는 ‘이(是)’와 같다.', 'score': 0.5199180841445923}]</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1513,27 +1513,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['所謂是知周禮之賢人이', '乃在大水之一邊이니', '假喩以言遠이라']</t>
+          <t>['所謂是知周禮之賢人이', '乃在大水之一邊이니 假喩以言遠이라']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['이른바 이 周禮를 아는 賢人이', '큰 강물 한편에 있다는 것이니', '비유를 빌려 멀리 있음을 말한 것이다.']</t>
+          <t>['이른바 이 周禮를 아는 賢人이', '큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '所謂是知周禮之賢人이', 'tgt': '이른바 이 周禮를 아는 賢人이', 'score': 0.8866004943847656}, {'src_idx': 1, 'tgt_idx': 1, 'src': '乃在大水之一邊이니', 'tgt': '큰 강물 한편에 있다는 것이니', 'score': 0.7774611711502075}, {'src_idx': 2, 'tgt_idx': 2, 'src': '假喩以言遠이라', 'tgt': '비유를 빌려 멀리 있음을 말한 것이다.', 'score': 0.7755739092826843}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '所謂是知周禮之賢人이', 'tgt': '이른바 이 周禮를 아는 賢人이', 'score': 0.8866004943847656}, {'src_idx': 1, 'tgt_idx': 1, 'src': '乃在大水之一邊이니 假喩以言遠이라', 'tgt': '큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것이다.', 'score': 0.8371541500091553}]</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1557,27 +1557,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['遡洄從之하니', '道阻且長이러니']</t>
+          <t>['遡洄從之하니 道阻且長이러니']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['물살 거슬러 올라가 따르려니', '길은 막히고 멀기만 하더니']</t>
+          <t>['물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니', 'tgt': '물살 거슬러 올라가 따르려니', 'score': 0.6094860434532166}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道阻且長이러니', 'tgt': '길은 막히고 멀기만 하더니', 'score': 0.6104151606559753}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니 道阻且長이러니', 'tgt': '물살 거슬러 올라가 따르려니 길은 막히고 멀기만 하더니', 'score': 0.654111385345459}]</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1645,24 +1645,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['逆禮면', '則莫能以至也라']</t>
+          <t>['逆禮면 則莫能以至也라']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['禮를', '거스르면 이를 수 없는 것이다.']</t>
+          <t>['禮를 거스르면 이를 수 없는 것이다.']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '則莫能以至也라', 'tgt': '거스르면 이를 수 없는 것이다.', 'score': 0.6655184626579285}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '逆禮면 則莫能以至也라', 'tgt': '禮를 거스르면 이를 수 없는 것이다.', 'score': 0.719231128692627}]</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -1689,27 +1689,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['箋云', '此言不以敬順往求之면', '則不能得見이라']</t>
+          <t>['箋云 此言不以敬順往求之면 則不能得見이라']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['箋云：', '이는 공경하고 순종하는 마음으로 가서 구하지 않으면', '만나볼 수 없음을 말한 것이다.']</t>
+          <t>['箋云： 이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '箋云：', 'score': 0.8240688443183899}, {'src_idx': 1, 'tgt_idx': 1, 'src': '此言不以敬順往求之면', 'tgt': '이는 공경하고 순종하는 마음으로 가서 구하지 않으면', 'score': 0.6814616918563843}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則不能得見이라', 'tgt': '만나볼 수 없음을 말한 것이다.', 'score': 0.7137095928192139}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云 此言不以敬順往求之면 則不能得見이라', 'tgt': '箋云： 이는 공경하고 순종하는 마음으로 가서 구하지 않으면 만나볼 수 없음을 말한 것이다.', 'score': 0.7871783375740051}]</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1733,27 +1733,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['遡游從之하니', '宛在水中央이라']</t>
+          <t>['遡游從之하니 宛在水中央이라']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['물살을 따라 건너가 따르니', '가만히 강 가운데에 있네']</t>
+          <t>['물살을 따라 건너가 따르니 가만히 강 가운데에 있네']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니', 'tgt': '물살을 따라 건너가 따르니', 'score': 0.5899308323860168}, {'src_idx': 1, 'tgt_idx': 1, 'src': '宛在水中央이라', 'tgt': '가만히 강 가운데에 있네', 'score': 0.7253684401512146}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니 宛在水中央이라', 'tgt': '물살을 따라 건너가 따르니 가만히 강 가운데에 있네', 'score': 0.7416607141494751}]</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1821,27 +1821,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['順禮求濟면', '道來迎之라']</t>
+          <t>['順禮求濟면 道來迎之라']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['禮를 따라 이루기를 구하면', '道理로 와서 맞이하는 것이다.']</t>
+          <t>['禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '順禮求濟면', 'tgt': '禮를 따라 이루기를 구하면', 'score': 0.5839418172836304}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道來迎之라', 'tgt': '道理로 와서 맞이하는 것이다.', 'score': 0.5879165530204773}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '順禮求濟면 道來迎之라', 'tgt': '禮를 따라 이루기를 구하면 道理로 와서 맞이하는 것이다.', 'score': 0.7494567036628723}]</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1865,27 +1865,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['箋云', '宛은', '坐見貌라']</t>
+          <t>['箋云 宛은', '坐見貌라']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['箋云：宛은', '&lt;가만히&gt;', '앉아서 쳐다보는 모양이다.']</t>
+          <t>['箋云：宛은', '&lt;가만히&gt; 앉아서 쳐다보는 모양이다.']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '箋云：宛은', 'score': 0.6875302195549011}, {'src_idx': 1, 'tgt_idx': 0, 'src': '宛은', 'tgt': '箋云：宛은', 'score': 0.7720792889595032}, {'src_idx': 2, 'tgt_idx': 2, 'src': '坐見貌라', 'tgt': '앉아서 쳐다보는 모양이다.', 'score': 0.6369505524635315}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云 宛은', 'tgt': '箋云：宛은', 'score': 0.9219077229499817}, {'src_idx': 1, 'tgt_idx': 1, 'src': '坐見貌라', 'tgt': '&lt;가만히&gt; 앉아서 쳐다보는 모양이다.', 'score': 0.5887479186058044}]</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1909,27 +1909,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['以敬順求之면', '則近耳니', '易得見也라']</t>
+          <t>['以敬順求之면 則近耳니 易得見也라']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['공경하고 순종하는 마음으로 찾아 가면', '가까워지니', '쉽게 볼 수 있는 것이다.']</t>
+          <t>['공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다.']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '以敬順求之면', 'tgt': '공경하고 순종하는 마음으로 찾아 가면', 'score': 0.6634984016418457}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則近耳니', 'tgt': '가까워지니', 'score': 0.702358603477478}, {'src_idx': 2, 'tgt_idx': 2, 'src': '易得見也라', 'tgt': '쉽게 볼 수 있는 것이다.', 'score': 0.603143572807312}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '以敬順求之면 則近耳니 易得見也라', 'tgt': '공경하고 순종하는 마음으로 찾아 가면 가까워지니 쉽게 볼 수 있는 것이다.', 'score': 0.7864708304405212}]</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '宛은', 'tgt': '宛은', 'score': 1.0}, {'src_idx': 1, 'tgt_idx': 1, 'src': '本亦作苑이라', 'tgt': '苑으로 되어 있는 本도 있다.', 'score': 0.7397212386131287}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '宛은', 'tgt': '宛은', 'score': 1.0}, {'src_idx': 1, 'tgt_idx': 1, 'src': '本亦作苑이라', 'tgt': '苑으로 되어 있는 本도 있다.', 'score': 0.7397211790084839}]</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2041,27 +2041,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['[正義曰]：', '毛以爲“蒹葭之草,', '蒼蒼然雖盛,', '未堪家用,', '必待白露凝戾爲霜,', '然後堅實中用,', '歲事得成,']</t>
+          <t>['[正義曰]：毛以爲“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾爲霜, 然後堅實中用, 歲事得成,']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['正義曰：毛亨은', '“갈대라는 풀은', '비록 짙푸르게 무성하더라도', '아직 집안에서 사용할 만하지는', '않으니 반드시 백로가 엉겨 서리가 되기를 기다린', '뒤에야 단단하고 강해져 쓰임에 알맞게', '되어 歲事가 완성될 수 있다.']</t>
+          <t>['正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '[正義曰]：', 'tgt': '正義曰：毛亨은', 'score': 0.6394236087799072}, {'src_idx': 1, 'tgt_idx': 0, 'src': '毛以爲“蒹葭之草,', 'tgt': '正義曰：毛亨은', 'score': 0.5590733885765076}, {'src_idx': 2, 'tgt_idx': 2, 'src': '蒼蒼然雖盛,', 'tgt': '비록 짙푸르게 무성하더라도', 'score': 0.6573919653892517}, {'src_idx': 3, 'tgt_idx': 3, 'src': '未堪家用,', 'tgt': '아직 집안에서 사용할 만하지는', 'score': 0.8340784907341003}, {'src_idx': 4, 'tgt_idx': 4, 'src': '必待白露凝戾爲霜,', 'tgt': '않으니 반드시 백로가 엉겨 서리가 되기를 기다린', 'score': 0.6228180527687073}, {'src_idx': 5, 'tgt_idx': 5, 'src': '然後堅實中用,', 'tgt': '뒤에야 단단하고 강해져 쓰임에 알맞게', 'score': 0.7586299777030945}, {'src_idx': 6, 'tgt_idx': 6, 'src': '歲事得成,', 'tgt': '되어 歲事가 완성될 수 있다.', 'score': 0.8257873058319092}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '[正義曰]：毛以爲“蒹葭之草, 蒼蒼然雖盛, 未堪家用, 必待白露凝戾爲霜, 然後堅實中用, 歲事得成,', 'tgt': '正義曰：毛亨은 “갈대라는 풀은 비록 짙푸르게 무성하더라도 아직 집안에서 사용할 만하지는 않으니 반드시 백로가 엉겨 서리가 되기를 기다린 뒤에야 단단하고 강해져 쓰임에 알맞게 되어 歲事가 완성될 수 있다.', 'score': 0.7641246914863586}]</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2085,27 +2085,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['以興秦國之民雖衆,', '而未順德敎,', '必待周禮以敎之,', '然後服從上命,', '國乃得興.']</t>
+          <t>['以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['이것으로, 秦國의 백성들이 비록 많지만', '아직 德敎에 순응하지 않으니', '반드시 周禮로 가르친', '뒤에야 윗사람의 명에 복종하여', '국가가 마침내 흥성할 수 있음을 興한 것이다.']</t>
+          <t>['이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '以興秦國之民雖衆,', 'tgt': '이것으로, 秦國의 백성들이 비록 많지만', 'score': 0.7791022658348083}, {'src_idx': 1, 'tgt_idx': 1, 'src': '而未順德敎,', 'tgt': '아직 德敎에 순응하지 않으니', 'score': 0.7531906366348267}, {'src_idx': 2, 'tgt_idx': 2, 'src': '必待周禮以敎之,', 'tgt': '반드시 周禮로 가르친', 'score': 0.8352556824684143}, {'src_idx': 3, 'tgt_idx': 3, 'src': '然後服從上命,', 'tgt': '뒤에야 윗사람의 명에 복종하여', 'score': 0.8062741756439209}, {'src_idx': 4, 'tgt_idx': 4, 'src': '國乃得興.', 'tgt': '국가가 마침내 흥성할 수 있음을 興한 것이다.', 'score': 0.7585614919662476}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '以興秦國之民雖衆, 而未順德敎, 必待周禮以敎之, 然後服從上命, 國乃得興.', 'tgt': '이것으로, 秦國의 백성들이 비록 많지만 아직 德敎에 순응하지 않으니 반드시 周禮로 가르친 뒤에야 윗사람의 명에 복종하여 국가가 마침내 흥성할 수 있음을 興한 것이다.', 'score': 0.8550506234169006}]</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2129,27 +2129,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['今襄公未能用周禮,', '其國未得興也,', '由未能用周禮,', '故未得人服也.']</t>
+          <t>['今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['지금 襄公은 周禮를 따르지 않아서', '그 나라가 흥성하지 못하고,', '周禮를 따르지 못하기 때문에', '백성을 복종시키지 못한 것이다.']</t>
+          <t>['지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今襄公未能用周禮,', 'tgt': '지금 襄公은 周禮를 따르지 않아서', 'score': 0.845453143119812}, {'src_idx': 1, 'tgt_idx': 1, 'src': '其國未得興也,', 'tgt': '그 나라가 흥성하지 못하고,', 'score': 0.81171053647995}, {'src_idx': 2, 'tgt_idx': 2, 'src': '由未能用周禮,', 'tgt': '周禮를 따르지 못하기 때문에', 'score': 0.8421772718429565}, {'src_idx': 3, 'tgt_idx': 3, 'src': '故未得人服也.', 'tgt': '백성을 복종시키지 못한 것이다.', 'score': 0.7232282757759094}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '今襄公未能用周禮, 其國未得興也, 由未能用周禮, 故未得人服也.', 'tgt': '지금 襄公은 周禮를 따르지 않아서 그 나라가 흥성하지 못하고, 周禮를 따르지 못하기 때문에 백성을 복종시키지 못한 것이다.', 'score': 0.8619852066040039}]</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2173,27 +2173,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['所謂維是得人之道,', '乃遠在大水一邊,', '大水,', '喩禮樂,', '言得人之道,', '乃在禮樂之一邊.']</t>
+          <t>['所謂維是得人之道, 乃遠在大水一邊, 大水, 喩禮樂, 言得人之道, 乃在禮樂之一邊.']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['이른바 이 사람을 얻는 방도가 바로', '멀리 큰 강물 한 편에 있다는', '것은, 큰 강물을', '禮樂에 비유하여', '사람을 얻는 방도가 바로', '禮樂의 한 편에 있음을 말한 것이다.']</t>
+          <t>['이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '所謂維是得人之道,', 'tgt': '이른바 이 사람을 얻는 방도가 바로', 'score': 0.6290261745452881}, {'src_idx': 1, 'tgt_idx': 1, 'src': '乃遠在大水一邊,', 'tgt': '멀리 큰 강물 한 편에 있다는', 'score': 0.7903059124946594}, {'src_idx': 2, 'tgt_idx': 2, 'src': '大水,', 'tgt': '것은, 큰 강물을', 'score': 0.8013837337493896}, {'src_idx': 3, 'tgt_idx': 3, 'src': '喩禮樂,', 'tgt': '禮樂에 비유하여', 'score': 0.8093559145927429}, {'src_idx': 4, 'tgt_idx': 4, 'src': '言得人之道,', 'tgt': '사람을 얻는 방도가 바로', 'score': 0.6343937516212463}, {'src_idx': 5, 'tgt_idx': 5, 'src': '乃在禮樂之一邊.', 'tgt': '禮樂의 한 편에 있음을 말한 것이다.', 'score': 0.8547664284706116}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '所謂維是得人之道, 乃遠在大水一邊, 大水, 喩禮樂, 言得人之道, 乃在禮樂之一邊.', 'tgt': '이른바 이 사람을 얻는 방도가 바로 멀리 큰 강물 한 편에 있다는 것은, 큰 강물을 禮樂에 비유하여 사람을 얻는 방도가 바로 禮樂의 한 편에 있음을 말한 것이다.', 'score': 0.7699143886566162}]</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2217,27 +2217,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['旣以水喩禮樂,', '禮樂之傍有得人之道,', '因從水內求之.']</t>
+          <t>['旣以水喩禮樂, 禮樂之傍有得人之道, 因從水內求之.']</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['물을 禮樂에 비유하였으니', '바로 禮樂이 있는 곳에 사람을 얻는 방도가', '있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다.']</t>
+          <t>['물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다.']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '旣以水喩禮樂,', 'tgt': '물을 禮樂에 비유하였으니', 'score': 0.8519322872161865}, {'src_idx': 1, 'tgt_idx': 1, 'src': '禮樂之傍有得人之道,', 'tgt': '바로 禮樂이 있는 곳에 사람을 얻는 방도가', 'score': 0.8035001754760742}, {'src_idx': 2, 'tgt_idx': 2, 'src': '因從水內求之.', 'tgt': '있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다.', 'score': 0.701132595539093}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '旣以水喩禮樂, 禮樂之傍有得人之道, 因從水內求之.', 'tgt': '물을 禮樂에 비유하였으니 바로 禮樂이 있는 곳에 사람을 얻는 방도가 있기 때문에 물살을 따라가서 물 가운데에서 구하는 것이다.', 'score': 0.820080041885376}]</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2261,27 +2261,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['若逆流遡洄而往從之,', '則道險阻且長遠,', '不可得至,', '言逆禮以治國,', '則無得人道,', '終不可至.', '若順流遡游而往從之,', '則宛然在於水之中央,', '言順禮治國,', '則得人之道,', '自來迎己,', '正近在禮樂之內.']</t>
+          <t>['若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['만일 물살을 거슬러 올라가서 따른다면', '길이 험하고 막히며 멀어서', '도달할 수 없다는', '것은, 禮에 어긋나게 나라를 다스리면', '사람을 얻는 방도가 없어서', '끝내 이를 수 없음을', '말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면', '宛然히 물 가운데 있다는 것은,', '禮에 따라 나라를 다스리면', '사람을 얻는 道이니', '절로 와서 나를 맞이함이 바로', '禮樂의 안에 가까이 있음을 말한 것이다.']</t>
+          <t>['만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은, 禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '若逆流遡洄而往從之,', 'tgt': '만일 물살을 거슬러 올라가서 따른다면', 'score': 0.7481355667114258}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則道險阻且長遠,', 'tgt': '길이 험하고 막히며 멀어서', 'score': 0.8019988536834717}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不可得至,', 'tgt': '도달할 수 없다는', 'score': 0.8116490244865417}, {'src_idx': 3, 'tgt_idx': 8, 'src': '言逆禮以治國,', 'tgt': '禮에 따라 나라를 다스리면', 'score': 0.7256535291671753}, {'src_idx': 4, 'tgt_idx': 4, 'src': '則無得人道,', 'tgt': '사람을 얻는 방도가 없어서', 'score': 0.7127223014831543}, {'src_idx': 5, 'tgt_idx': 5, 'src': '終不可至.', 'tgt': '끝내 이를 수 없음을', 'score': 0.7983241677284241}, {'src_idx': 6, 'tgt_idx': 0, 'src': '若順流遡游而往從之,', 'tgt': '만일 물살을 거슬러 올라가서 따른다면', 'score': 0.7917748689651489}, {'src_idx': 7, 'tgt_idx': 7, 'src': '則宛然在於水之中央,', 'tgt': '宛然히 물 가운데 있다는 것은,', 'score': 0.8559953570365906}, {'src_idx': 8, 'tgt_idx': 8, 'src': '言順禮治國,', 'tgt': '禮에 따라 나라를 다스리면', 'score': 0.78606116771698}, {'src_idx': 9, 'tgt_idx': 9, 'src': '則得人之道,', 'tgt': '사람을 얻는 道이니', 'score': 0.7707579135894775}, {'src_idx': 10, 'tgt_idx': 10, 'src': '自來迎己,', 'tgt': '절로 와서 나를 맞이함이 바로', 'score': 0.6490395665168762}, {'src_idx': 11, 'tgt_idx': 11, 'src': '正近在禮樂之內.', 'tgt': '禮樂의 안에 가까이 있음을 말한 것이다.', 'score': 0.8794080018997192}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '若逆流遡洄而往從之, 則道險阻且長遠, 不可得至, 言逆禮以治國, 則無得人道, 終不可至. 若順流遡游而往從之, 則宛然在於水之中央, 言順禮治國, 則得人之道, 自來迎己, 正近在禮樂之內.', 'tgt': '만일 물살을 거슬러 올라가서 따른다면 길이 험하고 막히며 멀어서 도달할 수 없다는 것은, 禮에 어긋나게 나라를 다스리면 사람을 얻는 방도가 없어서 끝내 이를 수 없음을 말한 것이고, 물살에 순응하며 따라 내려가 만나려 하면 宛然히 물 가운데 있다는 것은, 禮에 따라 나라를 다스리면 사람을 얻는 道이니 절로 와서 나를 맞이함이 바로 禮樂의 안에 가까이 있음을 말한 것이다.', 'score': 0.7993277907371521}]</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2305,27 +2305,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['然則非禮,', '必不得人,', '得人,', '必能固國,', '君何以不求用周禮乎.”']</t>
+          <t>['然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['그러니 禮가 아니면', '반드시 사람을 얻을 수 없고,', '사람을 얻어야', '반드시 나라를 견고하게 할 수 있는데,', '군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.']</t>
+          <t>['그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然則非禮,', 'tgt': '그러니 禮가 아니면', 'score': 0.7762417793273926}, {'src_idx': 1, 'tgt_idx': 1, 'src': '必不得人,', 'tgt': '반드시 사람을 얻을 수 없고,', 'score': 0.7012128233909607}, {'src_idx': 2, 'tgt_idx': 2, 'src': '得人,', 'tgt': '사람을 얻어야', 'score': 0.7388596534729004}, {'src_idx': 3, 'tgt_idx': 3, 'src': '必能固國,', 'tgt': '반드시 나라를 견고하게 할 수 있는데,', 'score': 0.8444080352783203}, {'src_idx': 4, 'tgt_idx': 4, 'src': '君何以不求用周禮乎.”', 'tgt': '군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.', 'score': 0.7149038314819336}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然則非禮, 必不得人, 得人, 必能固國, 君何以不求用周禮乎.”', 'tgt': '그러니 禮가 아니면 반드시 사람을 얻을 수 없고, 사람을 얻어야 반드시 나라를 견고하게 할 수 있는데, 군주는 어찌하여 周禮 따름을 추구하지 않는가.”라고 여겼다.', 'score': 0.8236790895462036}]</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2349,27 +2349,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['鄭以爲“蒹葭在衆草之中', '蒼蒼然彊盛,', '雖似不可雕傷,', '至白露凝戾爲霜,', '則成而爲黃矣,', '以興衆民之彊者,', '不從襄公敎令,', '雖似不可屈服,', '若得周禮以敎,', '則衆民自然服矣.']</t>
+          <t>['鄭以爲“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾爲霜, 則成而爲黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['鄭玄은 “갈대는 여러 풀들 중에', '짙푸르게 무성하여', '비록 마르고 시들지 않을 듯하지만', '白露가 얼어 서리가 되는 때가', '되면 다 자라 누렇게 된다는 것으로,', '강성한 백성들이', '襄公의 敎令을 따르지 않아서', '비록 굴복시킬 수 없을 듯하지만', '周禮로 교화시키면', '백성들이 자연히 복종한다는 것을 興한 것이다.']</t>
+          <t>['鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다.']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '鄭以爲“蒹葭在衆草之中', 'tgt': '鄭玄은 “갈대는 여러 풀들 중에', 'score': 0.6805463433265686}, {'src_idx': 1, 'tgt_idx': 5, 'src': '蒼蒼然彊盛,', 'tgt': '강성한 백성들이', 'score': 0.6147109270095825}, {'src_idx': 2, 'tgt_idx': 7, 'src': '雖似不可雕傷,', 'tgt': '비록 굴복시킬 수 없을 듯하지만', 'score': 0.6905413866043091}, {'src_idx': 3, 'tgt_idx': 3, 'src': '至白露凝戾爲霜,', 'tgt': '白露가 얼어 서리가 되는 때가', 'score': 0.630592942237854}, {'src_idx': 4, 'tgt_idx': 4, 'src': '則成而爲黃矣,', 'tgt': '되면 다 자라 누렇게 된다는 것으로,', 'score': 0.7009535431861877}, {'src_idx': 5, 'tgt_idx': 9, 'src': '以興衆民之彊者,', 'tgt': '백성들이 자연히 복종한다는 것을 興한 것이다.', 'score': 0.6136798858642578}, {'src_idx': 6, 'tgt_idx': 6, 'src': '不從襄公敎令,', 'tgt': '襄公의 敎令을 따르지 않아서', 'score': 0.9034836292266846}, {'src_idx': 7, 'tgt_idx': 7, 'src': '雖似不可屈服,', 'tgt': '비록 굴복시킬 수 없을 듯하지만', 'score': 0.7948656678199768}, {'src_idx': 8, 'tgt_idx': 8, 'src': '若得周禮以敎,', 'tgt': '周禮로 교화시키면', 'score': 0.8511168956756592}, {'src_idx': 9, 'tgt_idx': 9, 'src': '則衆民自然服矣.', 'tgt': '백성들이 자연히 복종한다는 것을 興한 것이다.', 'score': 0.7963712215423584}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '鄭以爲“蒹葭在衆草之中 蒼蒼然彊盛, 雖似不可雕傷, 至白露凝戾爲霜, 則成而爲黃矣, 以興衆民之彊者, 不從襄公敎令, 雖似不可屈服, 若得周禮以敎, 則衆民自然服矣.', 'tgt': '鄭玄은 “갈대는 여러 풀들 중에 짙푸르게 무성하여 비록 마르고 시들지 않을 듯하지만 白露가 얼어 서리가 되는 때가 되면 다 자라 누렇게 된다는 것으로, 강성한 백성들이 襄公의 敎令을 따르지 않아서 비록 굴복시킬 수 없을 듯하지만 周禮로 교화시키면 백성들이 자연히 복종한다는 것을 興한 것이다.', 'score': 0.7875729203224182}]</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['欲求周禮,', '當得知周禮之人,', '所謂是知周禮之人在於何處.']</t>
+          <t>['欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.']</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['周禮를 구하고자', '한다면 周禮를 아는 사람을', '얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가.']</t>
+          <t>['周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가.']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '欲求周禮,', 'tgt': '周禮를 구하고자', 'score': 0.7602555155754089}, {'src_idx': 1, 'tgt_idx': 1, 'src': '當得知周禮之人,', 'tgt': '한다면 周禮를 아는 사람을', 'score': 0.8383060097694397}, {'src_idx': 2, 'tgt_idx': 2, 'src': '所謂是知周禮之人在於何處.', 'tgt': '얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가.', 'score': 0.8277721405029297}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '欲求周禮, 當得知周禮之人, 所謂是知周禮之人在於何處.', 'tgt': '周禮를 구하고자 한다면 周禮를 아는 사람을 얻어야 하니, 이른바 周禮를 아는 이 사람은 어디에 있는가.', 'score': 0.8736186027526855}]</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2437,27 +2437,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['在大水之一邊,', '假喩以言遠.']</t>
+          <t>['在大水之一邊, 假喩以言遠.']</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['큰 강 한편에 있다는', '것은 비유를 빌려 멀리 있음을 말한 것이다.']</t>
+          <t>['큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '在大水之一邊,', 'tgt': '큰 강 한편에 있다는', 'score': 0.8267822861671448}, {'src_idx': 1, 'tgt_idx': 1, 'src': '假喩以言遠.', 'tgt': '것은 비유를 빌려 멀리 있음을 말한 것이다.', 'score': 0.7922813892364502}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '在大水之一邊, 假喩以言遠.', 'tgt': '큰 강 한편에 있다는 것은 비유를 빌려 멀리 있음을 말한 것이다.', 'score': 0.8350874781608582}]</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2481,27 +2481,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['旣言此人在水一邊,', '因以水行爲喩.']</t>
+          <t>['旣言此人在水一邊, 因以水行爲喩.']</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['이 사람이 강 한편에 있음을 말하고,', '인하여 물길을 가는 것으로 비유를 삼았다.']</t>
+          <t>['이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다.']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '旣言此人在水一邊,', 'tgt': '이 사람이 강 한편에 있음을 말하고,', 'score': 0.8805859088897705}, {'src_idx': 1, 'tgt_idx': 1, 'src': '因以水行爲喩.', 'tgt': '인하여 물길을 가는 것으로 비유를 삼았다.', 'score': 0.8046108484268188}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '旣言此人在水一邊, 因以水行爲喩.', 'tgt': '이 사람이 강 한편에 있음을 말하고, 인하여 물길을 가는 것으로 비유를 삼았다.', 'score': 0.8423184156417847}]</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2525,27 +2525,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['若遡洄逆流而從之,', '則道阻且長,', '終不可見,', '言不以敬順往求之,', '則此人不可得之,', '若遡游順流而從之,', '則此人宛然在水中央,', '易得見,', '言以敬順求之,', '則此人易得.']</t>
+          <t>['若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.']</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['물살을 거슬러 따라가면', '물길이 막히고 멀어', '끝내 만나볼 수 없다는 것은,', '공경하고 순종하는 마음으로 가서 찾지', '않는다면 이 사람을 얻을 수 없음을 말한', '것이고, 만약 물살의 흐름을 따라가면', '이 사람이 가만히 물 가운데', '있어 쉽게 볼 수 있다는', '것은, 공경하고 순종하는 마음으로', '찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다.']</t>
+          <t>['물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 5, 'src': '若遡洄逆流而從之,', 'tgt': '것이고, 만약 물살의 흐름을 따라가면', 'score': 0.7450737357139587}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則道阻且長,', 'tgt': '물길이 막히고 멀어', 'score': 0.6382114887237549}, {'src_idx': 2, 'tgt_idx': 2, 'src': '終不可見,', 'tgt': '끝내 만나볼 수 없다는 것은,', 'score': 0.7356716394424438}, {'src_idx': 3, 'tgt_idx': 3, 'src': '言不以敬順往求之,', 'tgt': '공경하고 순종하는 마음으로 가서 찾지', 'score': 0.6796705722808838}, {'src_idx': 4, 'tgt_idx': 4, 'src': '則此人不可得之,', 'tgt': '않는다면 이 사람을 얻을 수 없음을 말한', 'score': 0.7671836018562317}, {'src_idx': 5, 'tgt_idx': 5, 'src': '若遡游順流而從之,', 'tgt': '것이고, 만약 물살의 흐름을 따라가면', 'score': 0.8179621696472168}, {'src_idx': 6, 'tgt_idx': 6, 'src': '則此人宛然在水中央,', 'tgt': '이 사람이 가만히 물 가운데', 'score': 0.8235964179039001}, {'src_idx': 7, 'tgt_idx': 7, 'src': '易得見,', 'tgt': '있어 쉽게 볼 수 있다는', 'score': 0.8349135518074036}, {'src_idx': 8, 'tgt_idx': 8, 'src': '言以敬順求之,', 'tgt': '것은, 공경하고 순종하는 마음으로', 'score': 0.7266467809677124}, {'src_idx': 9, 'tgt_idx': 9, 'src': '則此人易得.', 'tgt': '찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다.', 'score': 0.8228665590286255}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '若遡洄逆流而從之, 則道阻且長, 終不可見, 言不以敬順往求之, 則此人不可得之, 若遡游順流而從之, 則此人宛然在水中央, 易得見, 言以敬順求之, 則此人易得.', 'tgt': '물살을 거슬러 따라가면 물길이 막히고 멀어 끝내 만나볼 수 없다는 것은, 공경하고 순종하는 마음으로 가서 찾지 않는다면 이 사람을 얻을 수 없음을 말한 것이고, 만약 물살의 흐름을 따라가면 이 사람이 가만히 물 가운데 있어 쉽게 볼 수 있다는 것은, 공경하고 순종하는 마음으로 찾으면 이 사람을 쉽게 얻을 수 있음을 말한 것이다.', 'score': 0.7657521367073059}]</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2613,27 +2613,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['賢者,', '難進而易退,', '故不以敬順求之,', '則不可得.']</t>
+          <t>['賢者, 難進而易退, 故不以敬順求之, 則不可得.']</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['현자는', '벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기', '때문에 공경하고 순종하는 마음으로 찾지', '않는다면 만나볼 수 없는 것이다.']</t>
+          <t>['현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '賢者,', 'tgt': '현자는', 'score': 0.6074313521385193}, {'src_idx': 1, 'tgt_idx': 1, 'src': '難進而易退,', 'tgt': '벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기', 'score': 0.6972454190254211}, {'src_idx': 2, 'tgt_idx': 2, 'src': '故不以敬順求之,', 'tgt': '때문에 공경하고 순종하는 마음으로 찾지', 'score': 0.7165576219558716}, {'src_idx': 3, 'tgt_idx': 3, 'src': '則不可得.', 'tgt': '않는다면 만나볼 수 없는 것이다.', 'score': 0.6935181617736816}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '賢者, 難進而易退, 故不以敬順求之, 則不可得.', 'tgt': '현자는 벼슬에 나아가는 것을 어렵게 여기고 물러나는 것을 쉽게 여기기 때문에 공경하고 순종하는 마음으로 찾지 않는다면 만나볼 수 없는 것이다.', 'score': 0.7309305667877197}]</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2657,27 +2657,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['欲令襄公敬順求知禮之賢人,', '以敎其國也.”']</t>
+          <t>['欲令襄公敬順求知禮之賢人, 以敎其國也.”']</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아', '그 나라를 교화하게 하려 한 것이다.”라고 여겼다.']</t>
+          <t>['襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다.”라고 여겼다.']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '欲令襄公敬順求知禮之賢人,', 'tgt': '襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아', 'score': 0.8274408578872681}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以敎其國也.”', 'tgt': '그 나라를 교화하게 하려 한 것이다.”라고 여겼다.', 'score': 0.7825726866722107}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '欲令襄公敬順求知禮之賢人, 以敎其國也.”', 'tgt': '襄公으로 하여금 공경하고 순종하는 마음으로 예를 아는 賢人을 찾아 그 나라를 교화하게 하려 한 것이다.”라고 여겼다.', 'score': 0.8687248229980469}]</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2745,27 +2745,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['正義曰：', '‘蒹', '薕', '葭', '蘆’,', '釋草文,', '郭璞曰“蒹,', '似萑而細,', '高數尺.']</t>
+          <t>['正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.']</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['正義曰：‘蒹,', '薕’,', '‘葭,', '蘆’는', '≪爾雅≫', '&lt;釋草&gt;의 글인데', '郭璞은 “蒹은', '물억새(萑)와 비슷한데 가늘고 키가', '數尺이다.']</t>
+          <t>['正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：‘蒹,', 'score': 0.8784860968589783}, {'src_idx': 1, 'tgt_idx': 2, 'src': '‘蒹', 'tgt': '‘葭,', 'score': 0.8957103490829468}, {'src_idx': 2, 'tgt_idx': 2, 'src': '薕', 'tgt': '‘葭,', 'score': 0.7428587675094604}, {'src_idx': 3, 'tgt_idx': 2, 'src': '葭', 'tgt': '‘葭,', 'score': 0.7428587675094604}, {'src_idx': 4, 'tgt_idx': 3, 'src': '蘆’,', 'tgt': '蘆’는', 'score': 0.9052028656005859}, {'src_idx': 5, 'tgt_idx': 5, 'src': '釋草文,', 'tgt': '&lt;釋草&gt;의 글인데', 'score': 0.8256564140319824}, {'src_idx': 6, 'tgt_idx': 6, 'src': '郭璞曰“蒹,', 'tgt': '郭璞은 “蒹은', 'score': 0.8729004859924316}, {'src_idx': 7, 'tgt_idx': 7, 'src': '似萑而細,', 'tgt': '물억새(萑)와 비슷한데 가늘고 키가', 'score': 0.6687177419662476}, {'src_idx': 8, 'tgt_idx': 8, 'src': '高數尺.', 'tgt': '數尺이다.', 'score': 0.8892383575439453}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：‘蒹 薕 葭 蘆’, 釋草文, 郭璞曰“蒹, 似萑而細, 高數尺.', 'tgt': '正義曰：‘蒹, 薕’, ‘葭, 蘆’는 ≪爾雅≫ &lt;釋草&gt;의 글인데 郭璞은 “蒹은 물억새(萑)와 비슷한데 가늘고 키가 數尺이다.', 'score': 0.8282310366630554}]</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2789,27 +2789,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['蘆,', '葦也.”']</t>
+          <t>['蘆, 葦也.”']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['蘆는', '갈대이다.”라고 하고']</t>
+          <t>['蘆는 갈대이다.”라고 하고']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蘆,', 'tgt': '蘆는', 'score': 0.866340696811676}, {'src_idx': 1, 'tgt_idx': 1, 'src': '葦也.”', 'tgt': '갈대이다.”라고 하고', 'score': 0.6258852481842041}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蘆, 葦也.”', 'tgt': '蘆는 갈대이다.”라고 하고', 'score': 0.7893035411834717}]</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2833,27 +2833,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['陸機疏云“蒹,', '水草也,', '堅實,', '牛食之,', '令牛肥彊.']</t>
+          <t>['陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.']</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은', '水草인데', '질기고 강하여 소가', '먹으면', '살찌고 튼튼해진다.']</t>
+          <t>['陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '陸機疏云“蒹,', 'tgt': '陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은', 'score': 0.649725615978241}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水草也,', 'tgt': '水草인데', 'score': 0.8850616812705994}, {'src_idx': 2, 'tgt_idx': 4, 'src': '堅實,', 'tgt': '살찌고 튼튼해진다.', 'score': 0.6493216156959534}, {'src_idx': 3, 'tgt_idx': 3, 'src': '牛食之,', 'tgt': '먹으면', 'score': 0.691398561000824}, {'src_idx': 4, 'tgt_idx': 4, 'src': '令牛肥彊.', 'tgt': '살찌고 튼튼해진다.', 'score': 0.6716658473014832}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '陸機疏云“蒹, 水草也, 堅實, 牛食之, 令牛肥彊.', 'tgt': '陸機의 ≪毛詩草木鳥獸蟲魚疏≫에는 “蒹은 水草인데 질기고 강하여 소가 먹으면 살찌고 튼튼해진다.', 'score': 0.8275248408317566}]</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2877,27 +2877,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['靑․徐州人謂之蘆,', '兗州․遼東通語也.”']</t>
+          <t>['靑․徐州人謂之蘆, 兗州․遼東通語也.”']</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['靑州와 徐州 사람들은 蘆라고 하는데', '兗州와 遼東에서도 똑같이 부른다.”라고 하였다.']</t>
+          <t>['靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '靑․徐州人謂之蘆,', 'tgt': '靑州와 徐州 사람들은 蘆라고 하는데', 'score': 0.9038316011428833}, {'src_idx': 1, 'tgt_idx': 1, 'src': '兗州․遼東通語也.”', 'tgt': '兗州와 遼東에서도 똑같이 부른다.”라고 하였다.', 'score': 0.7907361388206482}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '靑․徐州人謂之蘆, 兗州․遼東通語也.”', 'tgt': '靑州와 徐州 사람들은 蘆라고 하는데 兗州와 遼東에서도 똑같이 부른다.”라고 하였다.', 'score': 0.8590445518493652}]</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2921,27 +2921,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['祭義說養蠶之法云', '“風戾以食之.”', '注云', '“使露氣燥乃食蠶.”', '然則戾爲燥之義.']</t>
+          <t>['祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾爲燥之義.']</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를', '“뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그', '注에서', '“이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니', '그렇다면 戾는 ‘마르다’는 뜻이다.']</t>
+          <t>['≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '祭義說養蠶之法云', 'tgt': '≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를', 'score': 0.59954434633255}, {'src_idx': 1, 'tgt_idx': 1, 'src': '“風戾以食之.”', 'tgt': '“뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그', 'score': 0.6218811273574829}, {'src_idx': 2, 'tgt_idx': 2, 'src': '注云', 'tgt': '注에서', 'score': 0.6226246953010559}, {'src_idx': 3, 'tgt_idx': 1, 'src': '“使露氣燥乃食蠶.”', 'tgt': '“뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그', 'score': 0.6103366613388062}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然則戾爲燥之義.', 'tgt': '그렇다면 戾는 ‘마르다’는 뜻이다.', 'score': 0.7473930716514587}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '祭義說養蠶之法云 “風戾以食之.” 注云 “使露氣燥乃食蠶.” 然則戾爲燥之義.', 'tgt': '≪禮記≫ &lt;祭義&gt;에서 양잠하는 법을 해설하기를 “뽕잎을 바람에 말려서 먹인다.”라고 하였는데, 그 注에서 “이슬기를 말린 뒤에야 누에에게 먹인다.”라고 하였으니 그렇다면 戾는 ‘마르다’는 뜻이다.', 'score': 0.7182889580726624}]</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2965,27 +2965,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['下章‘未睎’,', '謂露未乾(간)爲霜.']</t>
+          <t>['下章‘未睎’, 謂露未乾(간)爲霜.']</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['下章의 ‘未睎’는', '아직 이슬이 말라 서리가 되지 않은 것이다.']</t>
+          <t>['下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다.']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '下章‘未睎’,', 'tgt': '下章의 ‘未睎’는', 'score': 0.9351441264152527}, {'src_idx': 1, 'tgt_idx': 1, 'src': '謂露未乾(간)爲霜.', 'tgt': '아직 이슬이 말라 서리가 되지 않은 것이다.', 'score': 0.5941471457481384}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '下章‘未睎’, 謂露未乾(간)爲霜.', 'tgt': '下章의 ‘未睎’는 아직 이슬이 말라 서리가 되지 않은 것이다.', 'score': 0.7765315175056458}]</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3009,27 +3009,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['然則露凝爲霜,', '亦如乾燥然,']</t>
+          <t>['然則露凝爲霜, 亦如乾燥然,']</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['그렇다면 이슬이 얼어 서리가 되는', '것도 마르는 것과 비슷한 것이다.']</t>
+          <t>['그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然則露凝爲霜,', 'tgt': '그렇다면 이슬이 얼어 서리가 되는', 'score': 0.5713759660720825}, {'src_idx': 1, 'tgt_idx': 1, 'src': '亦如乾燥然,', 'tgt': '것도 마르는 것과 비슷한 것이다.', 'score': 0.7456986904144287}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然則露凝爲霜, 亦如乾燥然,', 'tgt': '그렇다면 이슬이 얼어 서리가 되는 것도 마르는 것과 비슷한 것이다.', 'score': 0.6707258224487305}]</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3053,27 +3053,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['故云‘凝戾爲霜’,', '探下章之意,', '以爲說也.']</t>
+          <t>['故云‘凝戾爲霜’, 探下章之意, 以爲說也.']</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['그리하여 ‘凝戾爲霜’이라고', '하였으니 下章의 뜻까지 살펴', '설명한 것이다.']</t>
+          <t>['그리하여 ‘凝戾爲霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故云‘凝戾爲霜’,', 'tgt': '그리하여 ‘凝戾爲霜’이라고', 'score': 0.8642051815986633}, {'src_idx': 1, 'tgt_idx': 1, 'src': '探下章之意,', 'tgt': '하였으니 下章의 뜻까지 살펴', 'score': 0.7642462849617004}, {'src_idx': 2, 'tgt_idx': 2, 'src': '以爲說也.', 'tgt': '설명한 것이다.', 'score': 0.6903499364852905}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故云‘凝戾爲霜’, 探下章之意, 以爲說也.', 'tgt': '그리하여 ‘凝戾爲霜’이라고 하였으니 下章의 뜻까지 살펴 설명한 것이다.', 'score': 0.8594991564750671}]</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3097,27 +3097,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['八月,', '白露節,', '秋分八月中,', '九月,', '寒露節,', '霜降九月中.']</t>
+          <t>['八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中.']</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['8월은', '白露節인데', '秋分이 8월 중순이고', '9월은', '寒露節인데', '霜降이 9월 중순이다.']</t>
+          <t>['8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '八月,', 'tgt': '8월은', 'score': 0.8973668813705444}, {'src_idx': 1, 'tgt_idx': 1, 'src': '白露節,', 'tgt': '白露節인데', 'score': 0.9389939308166504}, {'src_idx': 2, 'tgt_idx': 2, 'src': '秋分八月中,', 'tgt': '秋分이 8월 중순이고', 'score': 0.8815281391143799}, {'src_idx': 3, 'tgt_idx': 3, 'src': '九月,', 'tgt': '9월은', 'score': 0.8942586779594421}, {'src_idx': 4, 'tgt_idx': 4, 'src': '寒露節,', 'tgt': '寒露節인데', 'score': 0.9304889440536499}, {'src_idx': 5, 'tgt_idx': 5, 'src': '霜降九月中.', 'tgt': '霜降이 9월 중순이다.', 'score': 0.8985559940338135}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '八月, 白露節, 秋分八月中, 九月, 寒露節, 霜降九月中.', 'tgt': '8월은 白露節인데 秋分이 8월 중순이고 9월은 寒露節인데 霜降이 9월 중순이다.', 'score': 0.9117980003356934}]</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3141,27 +3141,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['‘白霜凝戾爲霜然後歲事成’,', '謂八月九月葭成葦,', '可以爲曲(簿)[薄]充歲事也.']</t>
+          <t>['‘白霜凝戾爲霜然後歲事成’, 謂八月九月葭成葦, 可以爲曲(簿)[薄]充歲事也.']</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는', '것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니', '그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.']</t>
+          <t>['‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '‘白霜凝戾爲霜然後歲事成’,', 'tgt': '‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는', 'score': 0.7391102910041809}, {'src_idx': 1, 'tgt_idx': 1, 'src': '謂八月九月葭成葦,', 'tgt': '것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니', 'score': 0.659325361251831}, {'src_idx': 2, 'tgt_idx': 2, 'src': '可以爲曲(簿)[薄]充歲事也.', 'tgt': '그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.', 'score': 0.6317761540412903}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '‘白霜凝戾爲霜然後歲事成’, 謂八月九月葭成葦, 可以爲曲(簿)[薄]充歲事也.', 'tgt': '‘白露가 얼어 서리가 된 뒤에 歲事가 이루어진다’는 것은 8월과 9월에 어린 갈대[葭]가 다 자라 큰 갈대[葦]가 되니 그것으로 누에채반을 만들어 歲事를 마무리하는 것이다.', 'score': 0.676927387714386}]</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3185,27 +3185,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['七月云', '“八月萑葦”,', '則八月葦已成.']</t>
+          <t>['七月云 “八月萑葦”, 則八月葦已成.']</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['&lt;豳風 七月&gt;에', '“8월엔 갈대를 베네[八月萑葦]”라고', '하였으니 8월이면 갈대가 다 자란다.']</t>
+          <t>['&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '七月云', 'tgt': '&lt;豳風 七月&gt;에', 'score': 0.5857229232788086}, {'src_idx': 1, 'tgt_idx': 1, 'src': '“八月萑葦”,', 'tgt': '“8월엔 갈대를 베네[八月萑葦]”라고', 'score': 0.7098831534385681}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則八月葦已成.', 'tgt': '하였으니 8월이면 갈대가 다 자란다.', 'score': 0.7020952105522156}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '七月云 “八月萑葦”, 則八月葦已成.', 'tgt': '&lt;豳風 七月&gt;에 “8월엔 갈대를 베네[八月萑葦]”라고 하였으니 8월이면 갈대가 다 자란다.', 'score': 0.6533660888671875}]</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3229,27 +3229,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['此云‘白露爲霜然後', '歲事成’者,', '以其霜降,', '草乃成,', '擧霜爲言耳,', '其實白露初降,', '已任用矣.']</t>
+          <t>['此云‘白露爲霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜爲言耳, 其實白露初降, 已任用矣.']</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露爲霜然後', '歲事成]’라고', '한 것은 서리가 내리는', '때에야 풀이 마침내 다 자라므로 서리를', '들어서 말한 것일 뿐이니', '실제는 白露가 처음 내릴 때에도', '이미 쓸 만하다.']</t>
+          <t>['&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露爲霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此云‘白露爲霜然後', 'tgt': '&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露爲霜然後', 'score': 0.7151304483413696}, {'src_idx': 1, 'tgt_idx': 1, 'src': '歲事成’者,', 'tgt': '歲事成]’라고', 'score': 0.7935813665390015}, {'src_idx': 2, 'tgt_idx': 2, 'src': '以其霜降,', 'tgt': '한 것은 서리가 내리는', 'score': 0.6242321133613586}, {'src_idx': 3, 'tgt_idx': 1, 'src': '草乃成,', 'tgt': '歲事成]’라고', 'score': 0.5505809187889099}, {'src_idx': 4, 'tgt_idx': 4, 'src': '擧霜爲言耳,', 'tgt': '들어서 말한 것일 뿐이니', 'score': 0.5924695730209351}, {'src_idx': 5, 'tgt_idx': 5, 'src': '其實白露初降,', 'tgt': '실제는 白露가 처음 내릴 때에도', 'score': 0.8324800729751587}, {'src_idx': 6, 'tgt_idx': 6, 'src': '已任用矣.', 'tgt': '이미 쓸 만하다.', 'score': 0.7862672805786133}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此云‘白露爲霜然後 歲事成’者, 以其霜降, 草乃成, 擧霜爲言耳, 其實白露初降, 已任用矣.', 'tgt': '&lt;그런데&gt; 여기에서 ‘白露가 얼어 서리가 된 뒤에야 歲事가 이루어지고[白露爲霜然後 歲事成]’라고 한 것은 서리가 내리는 때에야 풀이 마침내 다 자라므로 서리를 들어서 말한 것일 뿐이니 실제는 白露가 처음 내릴 때에도 이미 쓸 만하다.', 'score': 0.7891680598258972}]</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3273,27 +3273,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['此以霜降物成,', '喩得禮則國興,', '下章‘未晞’‘未已’,', '言其未爲霜則物不成,', '喩未得禮則國不興.']</t>
+          <t>['此以霜降物成, 喩得禮則國興, 下章‘未晞’‘未已’, 言其未爲霜則物不成, 喩未得禮則國不興.']</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['여기는 서리가 내리면 갈대가', '다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고,', '下章의 ‘未晞’와 ‘未已’는', '&lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여', '禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다.']</t>
+          <t>['여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다.']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此以霜降物成,', 'tgt': '여기는 서리가 내리면 갈대가', 'score': 0.5658218264579773}, {'src_idx': 1, 'tgt_idx': 1, 'src': '喩得禮則國興,', 'tgt': '다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고,', 'score': 0.7787373065948486}, {'src_idx': 2, 'tgt_idx': 2, 'src': '下章‘未晞’‘未已’,', 'tgt': '下章의 ‘未晞’와 ‘未已’는', 'score': 0.9358644485473633}, {'src_idx': 3, 'tgt_idx': 4, 'src': '言其未爲霜則物不成,', 'tgt': '禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다.', 'score': 0.6209799647331238}, {'src_idx': 4, 'tgt_idx': 4, 'src': '喩未得禮則國不興.', 'tgt': '禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다.', 'score': 0.8700430393218994}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此以霜降物成, 喩得禮則國興, 下章‘未晞’‘未已’, 言其未爲霜則物不成, 喩未得禮則國不興.', 'tgt': '여기는 서리가 내리면 갈대가 다 자라는 것으로 禮를 얻으면 나라가 흥성해짐을 비유한 것이고, 下章의 ‘未晞’와 ‘未已’는 &lt;白露가&gt; 서리가 되지 않으면 갈대가 다 자라지 않음을 말하여 禮를 얻지 못하면 나라가 흥성하지 못함을 비유한 것이다.', 'score': 0.7427813410758972}]</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3361,27 +3361,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['故先言得禮則興,', '後言無禮不興,', '所以倒也.']</t>
+          <t>['故先言得禮則興, 後言無禮不興, 所以倒也.']</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['그리하여 禮를 얻으면 흥성함을 먼저 말하고', '禮가 없으면 흥성하지 못함을 뒤에 말하였으니', '이 때문에 뒤바뀐 것이다.']</t>
+          <t>['그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故先言得禮則興,', 'tgt': '그리하여 禮를 얻으면 흥성함을 먼저 말하고', 'score': 0.7458469867706299}, {'src_idx': 1, 'tgt_idx': 1, 'src': '後言無禮不興,', 'tgt': '禮가 없으면 흥성하지 못함을 뒤에 말하였으니', 'score': 0.7183709740638733}, {'src_idx': 2, 'tgt_idx': 2, 'src': '所以倒也.', 'tgt': '이 때문에 뒤바뀐 것이다.', 'score': 0.7403824925422668}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故先言得禮則興, 後言無禮不興, 所以倒也.', 'tgt': '그리하여 禮를 얻으면 흥성함을 먼저 말하고 禮가 없으면 흥성하지 못함을 뒤에 말하였으니 이 때문에 뒤바뀐 것이다.', 'score': 0.8180413842201233}]</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3449,27 +3449,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['正義曰：', '箋以序云‘未能用周禮', '將無以固其國’,', '當謂民未服從,', '國未能固,', '故易傳,', '用周禮敎民,', '則服.']</t>
+          <t>['正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.']</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['正義曰：箋은', '序에서 ‘周禮를 잘 따르지 못하여', '그 나라를 견고하게 하지 못할 것이다.’라고 한', '것은 응당 백성이 복종하지 않아서', '나라가 견고해지지 못함을 말한 것으로 여겼기', '때문에 傳을', '바꾸어 ‘周禮를 따라 백성을 교화하면 백성이', '복종한다.’고 한 것이다.']</t>
+          <t>['正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：箋은', 'score': 0.7886103987693787}, {'src_idx': 1, 'tgt_idx': 1, 'src': '箋以序云‘未能用周禮', 'tgt': '序에서 ‘周禮를 잘 따르지 못하여', 'score': 0.7997785210609436}, {'src_idx': 2, 'tgt_idx': 2, 'src': '將無以固其國’,', 'tgt': '그 나라를 견고하게 하지 못할 것이다.’라고 한', 'score': 0.8211439251899719}, {'src_idx': 3, 'tgt_idx': 3, 'src': '當謂民未服從,', 'tgt': '것은 응당 백성이 복종하지 않아서', 'score': 0.7337037920951843}, {'src_idx': 4, 'tgt_idx': 4, 'src': '國未能固,', 'tgt': '나라가 견고해지지 못함을 말한 것으로 여겼기', 'score': 0.7211095690727234}, {'src_idx': 5, 'tgt_idx': 5, 'src': '故易傳,', 'tgt': '때문에 傳을', 'score': 0.6866858601570129}, {'src_idx': 6, 'tgt_idx': 6, 'src': '用周禮敎民,', 'tgt': '바꾸어 ‘周禮를 따라 백성을 교화하면 백성이', 'score': 0.7982667088508606}, {'src_idx': 7, 'tgt_idx': 7, 'src': '則服.', 'tgt': '복종한다.’고 한 것이다.', 'score': 0.7631768584251404}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：箋以序云‘未能用周禮 將無以固其國’, 當謂民未服從, 國未能固, 故易傳, 用周禮敎民, 則服.', 'tgt': '正義曰：箋은 序에서 ‘周禮를 잘 따르지 못하여 그 나라를 견고하게 하지 못할 것이다.’라고 한 것은 응당 백성이 복종하지 않아서 나라가 견고해지지 못함을 말한 것으로 여겼기 때문에 傳을 바꾸어 ‘周禮를 따라 백성을 교화하면 백성이 복종한다.’고 한 것이다.', 'score': 0.8712408542633057}]</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3537,27 +3537,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['正義曰：', '‘伊', '維’,', '釋詁文.']</t>
+          <t>['正義曰：‘伊 維’, 釋詁文.']</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['正義曰：‘伊', '維’는', '≪爾雅≫', '&lt;釋詁&gt;의 글이다.']</t>
+          <t>['正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：‘伊', 'score': 0.8744120001792908}, {'src_idx': 1, 'tgt_idx': 0, 'src': '‘伊', 'tgt': '正義曰：‘伊', 'score': 0.6441038250923157}, {'src_idx': 2, 'tgt_idx': 1, 'src': '維’,', 'tgt': '維’는', 'score': 0.8753355741500854}, {'src_idx': 3, 'tgt_idx': 3, 'src': '釋詁文.', 'tgt': '&lt;釋詁&gt;의 글이다.', 'score': 0.8241973519325256}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：‘伊 維’, 釋詁文.', 'tgt': '正義曰：‘伊 維’는 ≪爾雅≫ &lt;釋詁&gt;의 글이다.', 'score': 0.8227656483650208}]</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3581,27 +3581,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['傳以詩剌未能用周禮,', '則未得人心,', '則所謂維,', '是得人之道也.']</t>
+          <t>['傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.']</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['傳은 이 詩가 周禮를 따르지 못하면', '인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면', '維라고 한 것은', '&lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.']</t>
+          <t>['傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳以詩剌未能用周禮,', 'tgt': '傳은 이 詩가 周禮를 따르지 못하면', 'score': 0.7440621852874756}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則未得人心,', 'tgt': '인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면', 'score': 0.683831512928009}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則所謂維,', 'tgt': '維라고 한 것은', 'score': 0.8390244841575623}, {'src_idx': 3, 'tgt_idx': 3, 'src': '是得人之道也.', 'tgt': '&lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.', 'score': 0.7356812953948975}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳以詩剌未能用周禮, 則未得人心, 則所謂維, 是得人之道也.', 'tgt': '傳은 이 詩가 周禮를 따르지 못하면 인심을 얻지 못할 것임을 풍자한 것으로 여겼으니 그러고 보면 維라고 한 것은 &lt;주례대로 하는 것만이&gt; 사람을 얻는 방도여서이다.', 'score': 0.8240535855293274}]</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3625,27 +3625,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['下傳,', '以遡洄喩逆禮,', '遡游喩順禮,', '言水內有得人之道,', '在大水一方,', '喩其遠而難至,', '言得人之道', '在禮樂之傍.']</t>
+          <t>['下傳, 以遡洄喩逆禮, 遡游喩順禮, 言水內有得人之道, 在大水一方, 喩其遠而難至, 言得人之道 在禮樂之傍.']</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['下傳은', '‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살', '따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여', '강물 안에 사람을 얻는 방도가 있음을 말한 것이고,', '‘큰 강의 한편에 있다’는 것으로', '멀리 있어 이르기 어려움을 비유하여', '사람을 얻는 도가', '禮樂 안에 있음을 말한 것이다.']</t>
+          <t>['下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '下傳,', 'tgt': '下傳은', 'score': 0.7738538980484009}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以遡洄喩逆禮,', 'tgt': '‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살', 'score': 0.7541736960411072}, {'src_idx': 2, 'tgt_idx': 2, 'src': '遡游喩順禮,', 'tgt': '따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여', 'score': 0.7755072116851807}, {'src_idx': 3, 'tgt_idx': 3, 'src': '言水內有得人之道,', 'tgt': '강물 안에 사람을 얻는 방도가 있음을 말한 것이고,', 'score': 0.7034305334091187}, {'src_idx': 4, 'tgt_idx': 4, 'src': '在大水一方,', 'tgt': '‘큰 강의 한편에 있다’는 것으로', 'score': 0.7651343941688538}, {'src_idx': 5, 'tgt_idx': 5, 'src': '喩其遠而難至,', 'tgt': '멀리 있어 이르기 어려움을 비유하여', 'score': 0.8343570828437805}, {'src_idx': 6, 'tgt_idx': 6, 'src': '言得人之道', 'tgt': '사람을 얻는 도가', 'score': 0.6846757531166077}, {'src_idx': 7, 'tgt_idx': 7, 'src': '在禮樂之傍.', 'tgt': '禮樂 안에 있음을 말한 것이다.', 'score': 0.7500737905502319}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '下傳, 以遡洄喩逆禮, 遡游喩順禮, 言水內有得人之道, 在大水一方, 喩其遠而難至, 言得人之道 在禮樂之傍.', 'tgt': '下傳은 ‘물살 거슬러 올라가는 것[遡洄]’으로 ‘예를 거스르는 것[逆禮]’을 비유하고 ‘물살 따라 가는 것[遡游]’으로 ‘예를 따르는 것[順禮]’을 비유하여 강물 안에 사람을 얻는 방도가 있음을 말한 것이고, ‘큰 강의 한편에 있다’는 것으로 멀리 있어 이르기 어려움을 비유하여 사람을 얻는 도가 禮樂 안에 있음을 말한 것이다.', 'score': 0.8508957028388977}]</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3669,27 +3669,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['須用禮樂以求之,', '故下句言從水內以求所求之物,', '喩用禮以求得人之道,']</t>
+          <t>['須用禮樂以求之, 故下句言從水內以求所求之物, 喩用禮以求得人之道,']</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['반드시 예악으로 구하여야 하기', '때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여', '禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다.']</t>
+          <t>['반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다.']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 2, 'src': '須用禮樂以求之,', 'tgt': '禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다.', 'score': 0.7073047757148743}, {'src_idx': 1, 'tgt_idx': 1, 'src': '故下句言從水內以求所求之物,', 'tgt': '때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여', 'score': 0.7334408760070801}, {'src_idx': 2, 'tgt_idx': 2, 'src': '喩用禮以求得人之道,', 'tgt': '禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다.', 'score': 0.8376238346099854}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '須用禮樂以求之, 故下句言從水內以求所求之物, 喩用禮以求得人之道,', 'tgt': '반드시 예악으로 구하여야 하기 때문에 下句에서 물살 따라 강물 안에서 구하려는 대상을 구한다고 하여 禮를 따라 사람을 얻는 도를 구하는 것을 비유한 것이다.', 'score': 0.7429155707359314}]</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3713,27 +3713,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['故王肅云', '“維得人之道,', '乃在水之一方.”']</t>
+          <t>['故王肅云 “維得人之道, 乃在水之一方.”']</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['그리하여 王肅이', '“사람을 얻는 도는', '강물 한편에 있다.”라고 한 것이다.']</t>
+          <t>['그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다.']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故王肅云', 'tgt': '그리하여 王肅이', 'score': 0.6709370017051697}, {'src_idx': 1, 'tgt_idx': 1, 'src': '“維得人之道,', 'tgt': '“사람을 얻는 도는', 'score': 0.6810790300369263}, {'src_idx': 2, 'tgt_idx': 2, 'src': '乃在水之一方.”', 'tgt': '강물 한편에 있다.”라고 한 것이다.', 'score': 0.7824699282646179}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故王肅云 “維得人之道, 乃在水之一方.”', 'tgt': '그리하여 王肅이 “사람을 얻는 도는 강물 한편에 있다.”라고 한 것이다.', 'score': 0.728408932685852}]</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3757,27 +3757,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['‘一方', '難至矣’,', '水以喩禮樂,', '能用禮則至於道也.']</t>
+          <t>['‘一方 難至矣’, 水以喩禮樂, 能用禮則至於道也.']</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['‘一方', '難至矣’는', '물로 예악을 비유한 것이니', '禮를 따르면 道에 이를 수 있는 것이다.']</t>
+          <t>['‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '‘一方', 'tgt': '‘一方', 'score': 1.0000001192092896}, {'src_idx': 1, 'tgt_idx': 1, 'src': '難至矣’,', 'tgt': '難至矣’는', 'score': 0.9604164361953735}, {'src_idx': 2, 'tgt_idx': 2, 'src': '水以喩禮樂,', 'tgt': '물로 예악을 비유한 것이니', 'score': 0.7437863349914551}, {'src_idx': 3, 'tgt_idx': 3, 'src': '能用禮則至於道也.', 'tgt': '禮를 따르면 道에 이를 수 있는 것이다.', 'score': 0.8893294930458069}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '‘一方 難至矣’, 水以喩禮樂, 能用禮則至於道也.', 'tgt': '‘一方 難至矣’는 물로 예악을 비유한 것이니 禮를 따르면 道에 이를 수 있는 것이다.', 'score': 0.9001520276069641}]</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3845,27 +3845,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['正義曰：', '箋以上句言用周禮敎民,', '則民服,', '此經當是勸君求賢人,', '使之(周)[用]禮,']</t>
+          <t>['正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮,']</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['正義曰：箋은', '‘上句에서 周禮를 따라 백성을 교화하면', '백성들이 복종함을', '말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서', '禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.']</t>
+          <t>['正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：箋은', 'score': 0.7886103987693787}, {'src_idx': 1, 'tgt_idx': 1, 'src': '箋以上句言用周禮敎民,', 'tgt': '‘上句에서 周禮를 따라 백성을 교화하면', 'score': 0.7235317230224609}, {'src_idx': 2, 'tgt_idx': 2, 'src': '則民服,', 'tgt': '백성들이 복종함을', 'score': 0.6418893933296204}, {'src_idx': 3, 'tgt_idx': 3, 'src': '此經當是勸君求賢人,', 'tgt': '말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서', 'score': 0.724490761756897}, {'src_idx': 4, 'tgt_idx': 4, 'src': '使之(周)[用]禮,', 'tgt': '禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.', 'score': 0.6432012915611267}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：箋以上句言用周禮敎民, 則民服, 此經當是勸君求賢人, 使之(周)[用]禮,', 'tgt': '正義曰：箋은 ‘上句에서 周禮를 따라 백성을 교화하면 백성들이 복종함을 말하였으니 여기의 經에서는 응당 군주에게 賢人을 찾아서 禮를 따르게 할 것을 권유한 것이다.’라고 여겼다.', 'score': 0.8575118184089661}]</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3889,27 +3889,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['故易傳,', '以所謂伊人,', '‘所謂是知周禮之賢人', '在大水一邊', '假喩以言遠’,']</t>
+          <t>['故易傳, 以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喩以言遠’,']</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['그리하여 傳을', '바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을', '말한 것[所謂是知周禮之賢人', '在大水一邊', '假喩以言遠]’이라고 한 것이다.']</t>
+          <t>['그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喩以言遠]’이라고 한 것이다.']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故易傳,', 'tgt': '그리하여 傳을', 'score': 0.7064076066017151}, {'src_idx': 1, 'tgt_idx': 1, 'src': '以所謂伊人,', 'tgt': '바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을', 'score': 0.6034285426139832}, {'src_idx': 2, 'tgt_idx': 2, 'src': '‘所謂是知周禮之賢人', 'tgt': '말한 것[所謂是知周禮之賢人', 'score': 0.9135662317276001}, {'src_idx': 3, 'tgt_idx': 3, 'src': '在大水一邊', 'tgt': '在大水一邊', 'score': 1.0000001192092896}, {'src_idx': 4, 'tgt_idx': 4, 'src': '假喩以言遠’,', 'tgt': '假喩以言遠]’이라고 한 것이다.', 'score': 0.9224305748939514}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故易傳, 以所謂伊人, ‘所謂是知周禮之賢人 在大水一邊 假喩以言遠’,', 'tgt': '그리하여 傳을 바꾸어서 ‘이른바 그 분이[所謂伊人]’에 대하여 ‘이른바 이 周禮를 아는 賢人이 큰 강물 한편에 있다는 것이니 비유를 빌려 멀리 있음을 말한 것[所謂是知周禮之賢人 在大水一邊 假喩以言遠]’이라고 한 것이다.', 'score': 0.8584834337234497}]</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3933,27 +3933,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['故下句逆流․順流,', '喩敬順,', '皆述求賢之事.']</t>
+          <t>['故下句逆流․順流, 喩敬順, 皆述求賢之事.']</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['그리하여 下句의 逆流와 順流도 공경과', '순종을 비유한 것으로', '모두 현자를 구하는 일을 서술한 것으로 여겼다.']</t>
+          <t>['그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故下句逆流․順流,', 'tgt': '그리하여 下句의 逆流와 順流도 공경과', 'score': 0.83868408203125}, {'src_idx': 1, 'tgt_idx': 1, 'src': '喩敬順,', 'tgt': '순종을 비유한 것으로', 'score': 0.7079123854637146}, {'src_idx': 2, 'tgt_idx': 2, 'src': '皆述求賢之事.', 'tgt': '모두 현자를 구하는 일을 서술한 것으로 여겼다.', 'score': 0.6841466426849365}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故下句逆流․順流, 喩敬順, 皆述求賢之事.', 'tgt': '그리하여 下句의 逆流와 順流도 공경과 순종을 비유한 것으로 모두 현자를 구하는 일을 서술한 것으로 여겼다.', 'score': 0.7635670304298401}]</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3977,27 +3977,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['一邊,', '水傍,', '下云‘在湄’‘在涘’', '是其居水傍也.']</t>
+          <t>['一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.']</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['一邊은', '강가이니 아래에서', '말한 ‘在湄’와 ‘在涘’는', '강가에 있는 것이다.']</t>
+          <t>['一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '一邊,', 'tgt': '一邊은', 'score': 0.8459389209747314}, {'src_idx': 1, 'tgt_idx': 3, 'src': '水傍,', 'tgt': '강가에 있는 것이다.', 'score': 0.7332423329353333}, {'src_idx': 2, 'tgt_idx': 2, 'src': '下云‘在湄’‘在涘’', 'tgt': '말한 ‘在湄’와 ‘在涘’는', 'score': 0.8371044993400574}, {'src_idx': 3, 'tgt_idx': 3, 'src': '是其居水傍也.', 'tgt': '강가에 있는 것이다.', 'score': 0.7412052154541016}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '一邊, 水傍, 下云‘在湄’‘在涘’ 是其居水傍也.', 'tgt': '一邊은 강가이니 아래에서 말한 ‘在湄’와 ‘在涘’는 강가에 있는 것이다.', 'score': 0.8312837481498718}]</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4065,27 +4065,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['正義曰：', '釋水云“逆流而上曰遡洄,', '順流而下曰遡游.”', '孫炎曰', '“逆渡者,', '逆流也,', '順渡者,', '順流也.”']</t>
+          <t>['正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”']</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['正義曰：≪爾雅≫', '&lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을', '따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데', '孫炎은', '“물살을 거슬러 건너는 것이', '‘逆流’이고 물살을', '따라 건너는 것이', '‘順流’이다.”라고 하였다.']</t>
+          <t>['正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다.']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：≪爾雅≫', 'score': 0.7894493341445923}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“逆流而上曰遡洄,', 'tgt': '&lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을', 'score': 0.8049101829528809}, {'src_idx': 2, 'tgt_idx': 2, 'src': '順流而下曰遡游.”', 'tgt': '따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데', 'score': 0.8760005235671997}, {'src_idx': 3, 'tgt_idx': 3, 'src': '孫炎曰', 'tgt': '孫炎은', 'score': 0.8354344367980957}, {'src_idx': 4, 'tgt_idx': 5, 'src': '“逆渡者,', 'tgt': '‘逆流’이고 물살을', 'score': 0.709143877029419}, {'src_idx': 5, 'tgt_idx': 5, 'src': '逆流也,', 'tgt': '‘逆流’이고 물살을', 'score': 0.8176727294921875}, {'src_idx': 6, 'tgt_idx': 6, 'src': '順渡者,', 'tgt': '따라 건너는 것이', 'score': 0.6517482995986938}, {'src_idx': 7, 'tgt_idx': 7, 'src': '順流也.”', 'tgt': '‘順流’이다.”라고 하였다.', 'score': 0.9198071956634521}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：釋水云“逆流而上曰遡洄, 順流而下曰遡游.” 孫炎曰 “逆渡者, 逆流也, 順渡者, 順流也.”', 'tgt': '正義曰：≪爾雅≫ &lt;釋水&gt;에 “물살을 거슬러 올라가는 것을 ‘遡洄’라 하고 물살을 따라 내려가는 것을 ‘遡游’라 한다.”라고 하였는데 孫炎은 “물살을 거슬러 건너는 것이 ‘逆流’이고 물살을 따라 건너는 것이 ‘順流’이다.”라고 하였다.', 'score': 0.8540316820144653}]</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['然則逆․順流,', '皆謂渡水有逆順,']</t>
+          <t>['然則逆․順流, 皆謂渡水有逆順,']</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['그렇다면 ‘逆流’와 ‘順流’는', '모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.']</t>
+          <t>['그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然則逆․順流,', 'tgt': '그렇다면 ‘逆流’와 ‘順流’는', 'score': 0.7347009778022766}, {'src_idx': 1, 'tgt_idx': 1, 'src': '皆謂渡水有逆順,', 'tgt': '모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.', 'score': 0.7386043667793274}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '然則逆․順流, 皆謂渡水有逆順,', 'tgt': '그렇다면 ‘逆流’와 ‘順流’는 모두 물을 건너는 방식에 물살을 거스르는 것과 따르는 것이 있음을 말한 것이다.', 'score': 0.7910776734352112}]</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4153,27 +4153,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['故下傳曰', '‘順流而涉’,', '見(현)其是人渡水也.']</t>
+          <t>['故下傳曰 ‘順流而涉’, 見(현)其是人渡水也.']</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['그리하여 下傳에', '‘물살 따라가며 건너는 것[順流而涉]’이라고', '하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다.']</t>
+          <t>['그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다.']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故下傳曰', 'tgt': '그리하여 下傳에', 'score': 0.8265008330345154}, {'src_idx': 1, 'tgt_idx': 1, 'src': '‘順流而涉’,', 'tgt': '‘물살 따라가며 건너는 것[順流而涉]’이라고', 'score': 0.7932540774345398}, {'src_idx': 2, 'tgt_idx': 2, 'src': '見(현)其是人渡水也.', 'tgt': '하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다.', 'score': 0.7996589541435242}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故下傳曰 ‘順流而涉’, 見(현)其是人渡水也.', 'tgt': '그리하여 下傳에 ‘물살 따라가며 건너는 것[順流而涉]’이라고 하였으니 바로 사람이 물을 건너는 것을 나타낸 것이다.', 'score': 0.8610472083091736}]</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4197,27 +4197,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['此謂得人之道在於水邊,', '逆流則道阻且長,', '言其不可得至,']</t>
+          <t>['此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,']</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['이 經文은 사람을 얻는 방도가 물가에 있거늘', '흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니', '이를 수 없음을 말한 것이다.']</t>
+          <t>['이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此謂得人之道在於水邊,', 'tgt': '이 經文은 사람을 얻는 방도가 물가에 있거늘', 'score': 0.8053920865058899}, {'src_idx': 1, 'tgt_idx': 1, 'src': '逆流則道阻且長,', 'tgt': '흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니', 'score': 0.7507755756378174}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其不可得至,', 'tgt': '이를 수 없음을 말한 것이다.', 'score': 0.7842901945114136}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此謂得人之道在於水邊, 逆流則道阻且長, 言其不可得至,', 'tgt': '이 經文은 사람을 얻는 방도가 물가에 있거늘 흐름을 거슬러 가면 길이 험하고 멀다고 한 것이니 이를 수 없음을 말한 것이다.', 'score': 0.817977786064148}]</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4241,27 +4241,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['故喩逆禮則莫能以至,', '言不得人之道,', '不可至.']</t>
+          <t>['故喩逆禮則莫能以至, 言不得人之道, 不可至.']</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['그리하여 禮를 거스르면 이를 수 없음을 비유하여,', '사람을 얻는 방도가 아니면', '이를 수 없음을 말하였다.']</t>
+          <t>['그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故喩逆禮則莫能以至,', 'tgt': '그리하여 禮를 거스르면 이를 수 없음을 비유하여,', 'score': 0.7853065133094788}, {'src_idx': 1, 'tgt_idx': 2, 'src': '言不得人之道,', 'tgt': '이를 수 없음을 말하였다.', 'score': 0.5868986248970032}, {'src_idx': 2, 'tgt_idx': 2, 'src': '不可至.', 'tgt': '이를 수 없음을 말하였다.', 'score': 0.7718446254730225}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故喩逆禮則莫能以至, 言不得人之道, 不可至.', 'tgt': '그리하여 禮를 거스르면 이를 수 없음을 비유하여, 사람을 얻는 방도가 아니면 이를 수 없음을 말하였다.', 'score': 0.7416169047355652}]</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4285,27 +4285,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['上言得人之道', '在水一方,', '下句言水中央,', '則是行未渡水,', '禮自來水內,', '故言順禮,', '未濟,', '道來迎之.']</t>
+          <t>['上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.']</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['위에서는 사람을 얻는 방도가', '강 한편에 있다고', '말하였는데 下句에서는 강 가운데를', '말한 것은, 물을 건너기 전에', '禮가 있는 이가 스스로 강 가운데로 오기', '때문에 예를 따르면 건너기', '전에', '道 있는 이가 와서 맞이한다고 한 것이다.']</t>
+          <t>['위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '上言得人之道', 'tgt': '위에서는 사람을 얻는 방도가', 'score': 0.5764890313148499}, {'src_idx': 1, 'tgt_idx': 1, 'src': '在水一方,', 'tgt': '강 한편에 있다고', 'score': 0.8390113711357117}, {'src_idx': 2, 'tgt_idx': 2, 'src': '下句言水中央,', 'tgt': '말하였는데 下句에서는 강 가운데를', 'score': 0.7918732762336731}, {'src_idx': 3, 'tgt_idx': 3, 'src': '則是行未渡水,', 'tgt': '말한 것은, 물을 건너기 전에', 'score': 0.6591647863388062}, {'src_idx': 4, 'tgt_idx': 4, 'src': '禮自來水內,', 'tgt': '禮가 있는 이가 스스로 강 가운데로 오기', 'score': 0.6485639214515686}, {'src_idx': 5, 'tgt_idx': 7, 'src': '故言順禮,', 'tgt': '道 있는 이가 와서 맞이한다고 한 것이다.', 'score': 0.6219797134399414}, {'src_idx': 6, 'tgt_idx': 6, 'src': '未濟,', 'tgt': '전에', 'score': 0.5346481800079346}, {'src_idx': 7, 'tgt_idx': 7, 'src': '道來迎之.', 'tgt': '道 있는 이가 와서 맞이한다고 한 것이다.', 'score': 0.8194596171379089}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '上言得人之道 在水一方, 下句言水中央, 則是行未渡水, 禮自來水內, 故言順禮, 未濟, 道來迎之.', 'tgt': '위에서는 사람을 얻는 방도가 강 한편에 있다고 말하였는데 下句에서는 강 가운데를 말한 것은, 물을 건너기 전에 禮가 있는 이가 스스로 강 가운데로 오기 때문에 예를 따르면 건너기 전에 道 있는 이가 와서 맞이한다고 한 것이다.', 'score': 0.7668219804763794}]</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4329,27 +4329,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['(未)[求]濟,', '謂未渡水也,', '以其用水爲喩,', '故以(未)[求]濟言之.']</t>
+          <t>['(未)[求]濟, 謂未渡水也, 以其用水爲喩, 故以(未)[求]濟言之.']</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['‘求濟’는', '강을 건너기 전을 말하니', '물로 비유를 삼았기', '때문에 ‘求濟’라고 말한 것이다.']</t>
+          <t>['‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '(未)[求]濟,', 'tgt': '‘求濟’는', 'score': 0.7303020358085632}, {'src_idx': 1, 'tgt_idx': 1, 'src': '謂未渡水也,', 'tgt': '강을 건너기 전을 말하니', 'score': 0.6455479860305786}, {'src_idx': 2, 'tgt_idx': 2, 'src': '以其用水爲喩,', 'tgt': '물로 비유를 삼았기', 'score': 0.8539000153541565}, {'src_idx': 3, 'tgt_idx': 3, 'src': '故以(未)[求]濟言之.', 'tgt': '때문에 ‘求濟’라고 말한 것이다.', 'score': 0.8086931705474854}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '(未)[求]濟, 謂未渡水也, 以其用水爲喩, 故以(未)[求]濟言之.', 'tgt': '‘求濟’는 강을 건너기 전을 말하니 물로 비유를 삼았기 때문에 ‘求濟’라고 말한 것이다.', 'score': 0.8056277632713318}]</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4461,24 +4461,24 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['蒹葭萋(처)萋하니', '白露未晞로다']</t>
+          <t>['蒹葭萋(처)萋하니 白露未晞로다']</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['갈대 무성하니', '白露 아직 마르지 않았네']</t>
+          <t>['갈대 무성하니 白露 아직 마르지 않았네']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '白露未晞로다', 'tgt': '白露 아직 마르지 않았네', 'score': 0.7122968435287476}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹葭萋(처)萋하니 白露未晞로다', 'tgt': '갈대 무성하니 白露 아직 마르지 않았네', 'score': 0.636443018913269}]</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -4593,27 +4593,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['箋云', '未晞는', '未爲霜이라']</t>
+          <t>['箋云 未晞는', '未爲霜이라']</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['箋云：‘未晞’는', '아직', '서리가 되지 않은 것이다.']</t>
+          <t>['箋云：‘未晞’는', '아직 서리가 되지 않은 것이다.']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '箋云：‘未晞’는', 'score': 0.6516860723495483}, {'src_idx': 1, 'tgt_idx': 0, 'src': '未晞는', 'tgt': '箋云：‘未晞’는', 'score': 0.841495156288147}, {'src_idx': 2, 'tgt_idx': 2, 'src': '未爲霜이라', 'tgt': '서리가 되지 않은 것이다.', 'score': 0.6306026577949524}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云 未晞는', 'tgt': '箋云：‘未晞’는', 'score': 0.9323887825012207}, {'src_idx': 1, 'tgt_idx': 1, 'src': '未爲霜이라', 'tgt': '아직 서리가 되지 않은 것이다.', 'score': 0.6258576512336731}]</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4637,27 +4637,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['傳‘晞', '乾’']</t>
+          <t>['傳‘晞 乾’']</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['傳의 [晞', '乾]']</t>
+          <t>['傳의 [晞 乾]']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘晞', 'tgt': '傳의 [晞', 'score': 0.81520015001297}, {'src_idx': 1, 'tgt_idx': 1, 'src': '乾’', 'tgt': '乾]', 'score': 0.7700016498565674}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘晞 乾’', 'tgt': '傳의 [晞 乾]', 'score': 0.8392328023910522}]</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4681,27 +4681,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>['正義曰：', '湛露云“匪陽不晞”,', '言見日則乾,']</t>
+          <t>['正義曰：湛露云“匪陽不晞”, 言見日則乾,']</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['正義曰：&lt;小雅', '湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고', '하였으니 햇볕을 쬐면 마르는 것을 말한 것이다.']</t>
+          <t>['正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：&lt;小雅', 'score': 0.7792000770568848}, {'src_idx': 1, 'tgt_idx': 1, 'src': '湛露云“匪陽不晞”,', 'tgt': '湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고', 'score': 0.7160602807998657}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言見日則乾,', 'tgt': '하였으니 햇볕을 쬐면 마르는 것을 말한 것이다.', 'score': 0.6280746459960938}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：湛露云“匪陽不晞”, 言見日則乾,', 'tgt': '正義曰：&lt;小雅 湛露&gt;에 “햇볕이 아니면 마르지 않네[匪陽不晞]”라고 하였으니 햇볕을 쬐면 마르는 것을 말한 것이다.', 'score': 0.7348913550376892}]</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4769,27 +4769,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>['彼言露晞,', '謂露盡乾.']</t>
+          <t>['彼言露晞, 謂露盡乾.']</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['&lt;湛露&gt;에서 ‘露晞’라고 한', '것은 이슬이 다 마른 것을 말한다.']</t>
+          <t>['&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '彼言露晞,', 'tgt': '&lt;湛露&gt;에서 ‘露晞’라고 한', 'score': 0.7384491562843323}, {'src_idx': 1, 'tgt_idx': 1, 'src': '謂露盡乾.', 'tgt': '것은 이슬이 다 마른 것을 말한다.', 'score': 0.700900673866272}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '彼言露晞, 謂露盡乾.', 'tgt': '&lt;湛露&gt;에서 ‘露晞’라고 한 것은 이슬이 다 마른 것을 말한다.', 'score': 0.7963770627975464}]</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4813,27 +4813,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>['此篇上章言白露爲霜,', '則此言未晞,', '謂未乾爲霜,', '與彼異,']</t>
+          <t>['此篇上章言白露爲霜, 則此言未晞, 謂未乾爲霜, 與彼異,']</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露爲霜]’라고 하였으니', '이 章에서 말한 ‘未晞’는', '말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt;', '다르다.']</t>
+          <t>['그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露爲霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此篇上章言白露爲霜,', 'tgt': '그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露爲霜]’라고 하였으니', 'score': 0.8036176562309265}, {'src_idx': 1, 'tgt_idx': 1, 'src': '則此言未晞,', 'tgt': '이 章에서 말한 ‘未晞’는', 'score': 0.8380079865455627}, {'src_idx': 2, 'tgt_idx': 2, 'src': '謂未乾爲霜,', 'tgt': '말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt;', 'score': 0.6256015300750732}, {'src_idx': 3, 'tgt_idx': 3, 'src': '與彼異,', 'tgt': '다르다.', 'score': 0.7731521725654602}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '此篇上章言白露爲霜, 則此言未晞, 謂未乾爲霜, 與彼異,', 'tgt': '그런데 이 시의 上章에서 ‘白露 서리가 되었네[白露爲霜]’라고 하였으니 이 章에서 말한 ‘未晞’는 말라서 서리가 되지 않은 것을 말하니 &lt;湛露&gt;와는 &lt;晞의 의미가&gt; 다르다.', 'score': 0.852652907371521}]</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4857,27 +4857,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>['故箋云', '‘未晞', '未爲霜也’.']</t>
+          <t>['故箋云 ‘未晞 未爲霜也’.']</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['그리하여 箋에서', '‘未晞는', '서리가 되지 않은 것이다.[未晞 未爲霜也]’라고 한 것이다.']</t>
+          <t>['그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未爲霜也]’라고 한 것이다.']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故箋云', 'tgt': '그리하여 箋에서', 'score': 0.5481654405593872}, {'src_idx': 1, 'tgt_idx': 1, 'src': '‘未晞', 'tgt': '‘未晞는', 'score': 0.9618074297904968}, {'src_idx': 2, 'tgt_idx': 2, 'src': '未爲霜也’.', 'tgt': '서리가 되지 않은 것이다.[未晞 未爲霜也]’라고 한 것이다.', 'score': 0.8576143980026245}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '故箋云 ‘未晞 未爲霜也’.', 'tgt': '그리하여 箋에서 ‘未晞는 서리가 되지 않은 것이다.[未晞 未爲霜也]’라고 한 것이다.', 'score': 0.8754020929336548}]</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4989,27 +4989,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>['傳‘湄', '水隒’']</t>
+          <t>['傳‘湄 水隒’']</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['傳의 [湄', '水隒]']</t>
+          <t>['傳의 [湄 水隒]']</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘湄', 'tgt': '傳의 [湄', 'score': 0.8441159725189209}, {'src_idx': 1, 'tgt_idx': 1, 'src': '水隒’', 'tgt': '水隒]', 'score': 0.7685089111328125}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘湄 水隒’', 'tgt': '傳의 [湄 水隒]', 'score': 0.8697409629821777}]</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5033,27 +5033,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>['正義曰', '釋水云“水草交爲湄.”', '謂水草交際之處,', '水之岸也.']</t>
+          <t>['正義曰 釋水云“水草交爲湄.” 謂水草交際之處, 水之岸也.']</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['正義曰：≪爾雅≫', '&lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고', '하였으니 물과 풀이 만나는 곳을 말하니', '강기슭이다.']</t>
+          <t>['正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.']</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰', 'tgt': '正義曰：≪爾雅≫', 'score': 0.7983686327934265}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“水草交爲湄.”', 'tgt': '&lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고', 'score': 0.7026192545890808}, {'src_idx': 2, 'tgt_idx': 2, 'src': '謂水草交際之處,', 'tgt': '하였으니 물과 풀이 만나는 곳을 말하니', 'score': 0.8086572289466858}, {'src_idx': 3, 'tgt_idx': 3, 'src': '水之岸也.', 'tgt': '강기슭이다.', 'score': 0.7370167374610901}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰 釋水云“水草交爲湄.” 謂水草交際之處, 水之岸也.', 'tgt': '正義曰：≪爾雅≫ &lt;釋水&gt;에 “강물이 풀에 닿는 곳이 湄이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.', 'score': 0.7751291990280151}]</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5077,27 +5077,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['釋山云', '“重甗(언),', '隒(엄).”', '隒,', '是山岸,', '湄,', '是水岸,']</t>
+          <t>['釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸,']</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['≪爾雅≫ &lt;釋山&gt;에', '“두 개의 시루가 포개진 것과 같은 곳이', '隒이다.”라고', '하였으니 隒은', '산기슭이고', '湄는', '강기슭이다.']</t>
+          <t>['≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다.']</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '釋山云', 'tgt': '≪爾雅≫ &lt;釋山&gt;에', 'score': 0.6108757257461548}, {'src_idx': 1, 'tgt_idx': 2, 'src': '“重甗(언),', 'tgt': '隒이다.”라고', 'score': 0.6265221238136292}, {'src_idx': 2, 'tgt_idx': 2, 'src': '隒(엄).”', 'tgt': '隒이다.”라고', 'score': 0.7846829295158386}, {'src_idx': 3, 'tgt_idx': 3, 'src': '隒,', 'tgt': '하였으니 隒은', 'score': 0.6527555584907532}, {'src_idx': 4, 'tgt_idx': 4, 'src': '是山岸,', 'tgt': '산기슭이고', 'score': 0.7588856816291809}, {'src_idx': 5, 'tgt_idx': 5, 'src': '湄,', 'tgt': '湄는', 'score': 0.8904737234115601}, {'src_idx': 6, 'tgt_idx': 6, 'src': '是水岸,', 'tgt': '강기슭이다.', 'score': 0.7666710615158081}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '釋山云 “重甗(언), 隒(엄).” 隒, 是山岸, 湄, 是水岸,', 'tgt': '≪爾雅≫ &lt;釋山&gt;에 “두 개의 시루가 포개진 것과 같은 곳이 隒이다.”라고 하였으니 隒은 산기슭이고 湄는 강기슭이다.', 'score': 0.731622576713562}]</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5165,27 +5165,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>['遡洄從之하니', '道阻且躋러니']</t>
+          <t>['遡洄從之하니 道阻且躋러니']</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['거슬러 올라가 따르려하니', '길은 험하고 오르막이더니']</t>
+          <t>['거슬러 올라가 따르려하니 길은 험하고 오르막이더니']</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니', 'tgt': '거슬러 올라가 따르려하니', 'score': 0.6287034153938293}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道阻且躋러니', 'tgt': '길은 험하고 오르막이더니', 'score': 0.6071471571922302}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니 道阻且躋러니', 'tgt': '거슬러 올라가 따르려하니 길은 험하고 오르막이더니', 'score': 0.6684041023254395}]</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5253,27 +5253,27 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>['箋云：', '升者는', '言其難至니', '如升阪이라']</t>
+          <t>['箋云：升者는', '言其難至니 如升阪이라']</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['升은', '이르기', '어려움을 말하니', '비탈을 오르는 것과 같은 것이다.']</t>
+          <t>['升은 이르기', '어려움을 말하니 비탈을 오르는 것과 같은 것이다.']</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 0, 'src': '升者는', 'tgt': '升은', 'score': 0.7286030054092407}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其難至니', 'tgt': '어려움을 말하니', 'score': 0.7245627045631409}, {'src_idx': 3, 'tgt_idx': 3, 'src': '如升阪이라', 'tgt': '비탈을 오르는 것과 같은 것이다.', 'score': 0.6190617680549622}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云：升者는', 'tgt': '升은 이르기', 'score': 0.6449260711669922}, {'src_idx': 1, 'tgt_idx': 1, 'src': '言其難至니 如升阪이라', 'tgt': '어려움을 말하니 비탈을 오르는 것과 같은 것이다.', 'score': 0.7102046012878418}]</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5341,27 +5341,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>['遡游從之하니', '宛在水中坻(지)로다']</t>
+          <t>['遡游從之하니 宛在水中坻(지)로다']</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['물살 따라 가니', '가만히 강 가운데 모래톱에 있다네']</t>
+          <t>['물살 따라 가니 가만히 강 가운데 모래톱에 있다네']</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니', 'tgt': '물살 따라 가니', 'score': 0.5528983473777771}, {'src_idx': 1, 'tgt_idx': 1, 'src': '宛在水中坻(지)로다', 'tgt': '가만히 강 가운데 모래톱에 있다네', 'score': 0.5766440629959106}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니 宛在水中坻(지)로다', 'tgt': '물살 따라 가니 가만히 강 가운데 모래톱에 있다네', 'score': 0.6089887619018555}]</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5429,27 +5429,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>['傳‘坻', '小渚’']</t>
+          <t>['傳‘坻 小渚’']</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['傳의', '[坻小渚]']</t>
+          <t>['傳의 [坻小渚]']</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘坻', 'tgt': '傳의', 'score': 0.7120002508163452}, {'src_idx': 1, 'tgt_idx': 1, 'src': '小渚’', 'tgt': '[坻小渚]', 'score': 0.8378888964653015}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘坻 小渚’', 'tgt': '傳의 [坻小渚]', 'score': 0.8416045904159546}]</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5473,27 +5473,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>['正義曰：', '釋水云“小洲曰渚,', '小渚曰沚,', '小沚曰坻.”', '然則坻,']</t>
+          <t>['正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻,']</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['正義曰：≪爾雅≫', '&lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고,', '渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다', '작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.', '그렇다면 坻는']</t>
+          <t>['正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다. 그렇다면 坻는']</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：≪爾雅≫', 'score': 0.7894493341445923}, {'src_idx': 1, 'tgt_idx': 1, 'src': '釋水云“小洲曰渚,', 'tgt': '&lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고,', 'score': 0.802386999130249}, {'src_idx': 2, 'tgt_idx': 2, 'src': '小渚曰沚,', 'tgt': '渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다', 'score': 0.7616430521011353}, {'src_idx': 3, 'tgt_idx': 3, 'src': '小沚曰坻.”', 'tgt': '작은 모래톱[小沚]을 坻라고 한다.”라고 하였다.', 'score': 0.7572850584983826}, {'src_idx': 4, 'tgt_idx': 4, 'src': '然則坻,', 'tgt': '그렇다면 坻는', 'score': 0.6961196064949036}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：釋水云“小洲曰渚, 小渚曰沚, 小沚曰坻.” 然則坻,', 'tgt': '正義曰：≪爾雅≫ &lt;釋水&gt;에 “洲보다 작은 모래톱[小洲]을 渚라 하고, 渚보다 작은 모래톱[小渚]을 沚라 하고, 沚보다 작은 모래톱[小沚]을 坻라고 한다.”라고 하였다. 그렇다면 坻는', 'score': 0.8095617294311523}]</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5517,27 +5517,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>['是小沚,', '言小渚者,', '渚․沚', '皆水中之地,', '小大異也.', '以渚易知,', '故繫渚言之.']</t>
+          <t>['是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也. 以渚易知, 故繫渚言之.']</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['‘小沚’인데', '&lt;傳에서&gt; ‘小渚’라고 한', '것은, 渚나 沚가', '모두 물 가운데 있는 땅으로 그', '크기가 다른데', '‘渚’가 알기 쉽기', '때문에 渚를 붙여 말한 것이다.']</t>
+          <t>['‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에 渚를 붙여 말한 것이다.']</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是小沚,', 'tgt': '‘小沚’인데', 'score': 0.9108549356460571}, {'src_idx': 1, 'tgt_idx': 1, 'src': '言小渚者,', 'tgt': '&lt;傳에서&gt; ‘小渚’라고 한', 'score': 0.8032072186470032}, {'src_idx': 2, 'tgt_idx': 2, 'src': '渚․沚', 'tgt': '것은, 渚나 沚가', 'score': 0.7692701816558838}, {'src_idx': 3, 'tgt_idx': 3, 'src': '皆水中之地,', 'tgt': '모두 물 가운데 있는 땅으로 그', 'score': 0.7875041365623474}, {'src_idx': 4, 'tgt_idx': 4, 'src': '小大異也.', 'tgt': '크기가 다른데', 'score': 0.7761346101760864}, {'src_idx': 5, 'tgt_idx': 5, 'src': '以渚易知,', 'tgt': '‘渚’가 알기 쉽기', 'score': 0.7869557738304138}, {'src_idx': 6, 'tgt_idx': 6, 'src': '故繫渚言之.', 'tgt': '때문에 渚를 붙여 말한 것이다.', 'score': 0.8374665379524231}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '是小沚, 言小渚者, 渚․沚 皆水中之地, 小大異也. 以渚易知, 故繫渚言之.', 'tgt': '‘小沚’인데 &lt;傳에서&gt; ‘小渚’라고 한 것은, 渚나 沚가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘渚’가 알기 쉽기 때문에 渚를 붙여 말한 것이다.', 'score': 0.8736697435379028}]</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5561,24 +5561,24 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>['蒹葭采采하니', '白露未已로다']</t>
+          <t>['蒹葭采采하니 白露未已로다']</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['갈대 무성하니', '白露 아직 그치지 않았네']</t>
+          <t>['갈대 무성하니 白露 아직 그치지 않았네']</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[{'src_idx': 1, 'tgt_idx': 1, 'src': '白露未已로다', 'tgt': '白露 아직 그치지 않았네', 'score': 0.7776266932487488}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹葭采采하니 白露未已로다', 'tgt': '갈대 무성하니 白露 아직 그치지 않았네', 'score': 0.6772388815879822}]</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -5781,27 +5781,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>['遡洄從之하니', '道阻且右러니']</t>
+          <t>['遡洄從之하니 道阻且右러니']</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['물살 거슬러 따라가니', '길이 험하고 우회하더니']</t>
+          <t>['물살 거슬러 따라가니 길이 험하고 우회하더니']</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니', 'tgt': '물살 거슬러 따라가니', 'score': 0.6031479239463806}, {'src_idx': 1, 'tgt_idx': 1, 'src': '道阻且右러니', 'tgt': '길이 험하고 우회하더니', 'score': 0.6001486778259277}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡洄從之하니 道阻且右러니', 'tgt': '물살 거슬러 따라가니 길이 험하고 우회하더니', 'score': 0.6598047614097595}]</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5869,27 +5869,27 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>['箋云', '右者는', '言其迂迴也라']</t>
+          <t>['箋云 右者는', '言其迂迴也라']</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['箋云：右는', '우회함을', '말한 것이다.']</t>
+          <t>['箋云：右는', '우회함을 말한 것이다.']</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '箋云：右는', 'score': 0.6547068357467651}, {'src_idx': 1, 'tgt_idx': 0, 'src': '右者는', 'tgt': '箋云：右는', 'score': 0.7497004866600037}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其迂迴也라', 'tgt': '말한 것이다.', 'score': 0.5192189812660217}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云 右者는', 'tgt': '箋云：右는', 'score': 0.8913612365722656}, {'src_idx': 1, 'tgt_idx': 1, 'src': '言其迂迴也라', 'tgt': '우회함을 말한 것이다.', 'score': 0.6483972072601318}]</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5913,27 +5913,27 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>['傳‘右', '出其右’']</t>
+          <t>['傳‘右 出其右’']</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['傳의 [右', '出其右]']</t>
+          <t>['傳의 [右 出其右]']</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘右', 'tgt': '傳의 [右', 'score': 0.7745071649551392}, {'src_idx': 1, 'tgt_idx': 1, 'src': '出其右’', 'tgt': '出其右]', 'score': 0.8368966579437256}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '傳‘右 出其右’', 'tgt': '傳의 [右 出其右]', 'score': 0.8639432787895203}]</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5957,27 +5957,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>['正義曰：', '此說道路艱難,', '而云‘且右’,', '故知右謂出其右也.']</t>
+          <t>['正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.']</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['正義曰：이는', '길이 험난함을 말하면서', '‘且右’라고', '하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다.']</t>
+          <t>['正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다.']</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：', 'tgt': '正義曰：이는', 'score': 0.8663964867591858}, {'src_idx': 1, 'tgt_idx': 1, 'src': '此說道路艱難,', 'tgt': '길이 험난함을 말하면서', 'score': 0.8146439790725708}, {'src_idx': 2, 'tgt_idx': 2, 'src': '而云‘且右’,', 'tgt': '‘且右’라고', 'score': 0.9035553932189941}, {'src_idx': 3, 'tgt_idx': 3, 'src': '故知右謂出其右也.', 'tgt': '하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다.', 'score': 0.7460716366767883}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '正義曰：此說道路艱難, 而云‘且右’, 故知右謂出其右也.', 'tgt': '正義曰：이는 길이 험난함을 말하면서 ‘且右’라고 하였기 때문에 右가 우측으로 돌아 나가는 것임을 안 것이다.', 'score': 0.8828593492507935}]</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6001,27 +6001,27 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>['若正與相當,', '行則易到,', '今乃出其右廂,', '是難至也.']</t>
+          <t>['若正與相當, 行則易到, 今乃出其右廂, 是難至也.']</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['만약 물살 흐르는 대로', '따라가면 쉽게 이르는데', '지금 오히려 우측으로 돌아 나가니 이는 이르기', '어려운 것이다.']</t>
+          <t>['만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다.']</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 1, 'src': '若正與相當,', 'tgt': '따라가면 쉽게 이르는데', 'score': 0.5953829288482666}, {'src_idx': 1, 'tgt_idx': 1, 'src': '行則易到,', 'tgt': '따라가면 쉽게 이르는데', 'score': 0.7157406210899353}, {'src_idx': 2, 'tgt_idx': 2, 'src': '今乃出其右廂,', 'tgt': '지금 오히려 우측으로 돌아 나가니 이는 이르기', 'score': 0.7075985670089722}, {'src_idx': 3, 'tgt_idx': 3, 'src': '是難至也.', 'tgt': '어려운 것이다.', 'score': 0.7732477188110352}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '若正與相當, 行則易到, 今乃出其右廂, 是難至也.', 'tgt': '만약 물살 흐르는 대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다.', 'score': 0.6787137985229492}]</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6045,27 +6045,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>['箋云', '‘右', '言其迂迴’,', '出其左,', '亦迂迴,']</t>
+          <t>['箋云 ‘右 言其迂迴’, 出其左, 亦迂迴,']</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['箋에', '‘右는', '우회함을 말한 것이다.’라고 하였는데,', '좌측으로 돌아 나가는 것도', '역시 우회하는 것이다.']</t>
+          <t>['箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.']</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云', 'tgt': '箋에', 'score': 0.7262189388275146}, {'src_idx': 1, 'tgt_idx': 1, 'src': '‘右', 'tgt': '‘右는', 'score': 0.943972110748291}, {'src_idx': 2, 'tgt_idx': 2, 'src': '言其迂迴’,', 'tgt': '우회함을 말한 것이다.’라고 하였는데,', 'score': 0.7114217877388}, {'src_idx': 3, 'tgt_idx': 3, 'src': '出其左,', 'tgt': '좌측으로 돌아 나가는 것도', 'score': 0.7146120071411133}, {'src_idx': 4, 'tgt_idx': 4, 'src': '亦迂迴,', 'tgt': '역시 우회하는 것이다.', 'score': 0.7555068731307983}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '箋云 ‘右 言其迂迴’, 出其左, 亦迂迴,', 'tgt': '箋에 ‘右는 우회함을 말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.', 'score': 0.8097746968269348}]</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -6089,27 +6089,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>['言右,', '取其與涘․沚爲韻.']</t>
+          <t>['言右, 取其與涘․沚爲韻.']</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['그런데 右라고 한', '것은 涘․沚와 韻을 맞추기 위한 것이다.']</t>
+          <t>['그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.']</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '言右,', 'tgt': '그런데 右라고 한', 'score': 0.811211347579956}, {'src_idx': 1, 'tgt_idx': 1, 'src': '取其與涘․沚爲韻.', 'tgt': '것은 涘․沚와 韻을 맞추기 위한 것이다.', 'score': 0.7870360612869263}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '言右, 取其與涘․沚爲韻.', 'tgt': '그런데 右라고 한 것은 涘․沚와 韻을 맞추기 위한 것이다.', 'score': 0.849991500377655}]</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6133,27 +6133,27 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>['遡游從之하니', '宛在水中沚로다']</t>
+          <t>['遡游從之하니 宛在水中沚로다']</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['물살 따라 가니', '가만히 물 가운데 작은 모래톱에 있네']</t>
+          <t>['물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네']</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니', 'tgt': '물살 따라 가니', 'score': 0.5528983473777771}, {'src_idx': 1, 'tgt_idx': 1, 'src': '宛在水中沚로다', 'tgt': '가만히 물 가운데 작은 모래톱에 있네', 'score': 0.5634428262710571}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '遡游從之하니 宛在水中沚로다', 'tgt': '물살 따라 가니 가만히 물 가운데 작은 모래톱에 있네', 'score': 0.5899494886398315}]</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6221,27 +6221,27 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>['蒹葭', '三章이니', '章八句라']</t>
+          <t>['蒹葭 三章이니 章八句라']</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['&lt;蒹葭&gt;', '3章이니', '章마다 8句이다.']</t>
+          <t>['&lt;蒹葭&gt; 3章이니 章마다 8句이다.']</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹葭', 'tgt': '&lt;蒹葭&gt;', 'score': 0.8114954233169556}, {'src_idx': 1, 'tgt_idx': 1, 'src': '三章이니', 'tgt': '3章이니', 'score': 0.9104330539703369}, {'src_idx': 2, 'tgt_idx': 2, 'src': '章八句라', 'tgt': '章마다 8句이다.', 'score': 0.6017459034919739}]</t>
+          <t>[{'src_idx': 0, 'tgt_idx': 0, 'src': '蒹葭 三章이니 章八句라', 'tgt': '&lt;蒹葭&gt; 3章이니 章마다 8句이다.', 'score': 0.7767409682273865}]</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
